--- a/Översikt GNESTA.xlsx
+++ b/Översikt GNESTA.xlsx
@@ -575,7 +575,7 @@
         <v>44659</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>46006.46337962963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>45712</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>45341</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>45530</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>44528</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,14 +1148,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 43303-2024</t>
+          <t>A 29975-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45568</v>
+        <v>45488.479375</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1167,45 +1167,136 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G8" t="n">
-        <v>10.3</v>
+        <v>6.7</v>
       </c>
       <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4</v>
+      </c>
+      <c r="P8" t="n">
         <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>5</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>7</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Klasefibbla
+Svinrot
+Vanlig backsmörblomma
+Vanlig snok
+Blåsippa
+Gullviva</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 29975-2024 artfynd.xlsx", "A 29975-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 29975-2024 karta.png", "A 29975-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 29975-2024 FSC-klagomål.docx", "A 29975-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 29975-2024 FSC-klagomål mail.docx", "A 29975-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 29975-2024 tillsynsbegäran.docx", "A 29975-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 29975-2024 tillsynsbegäran mail.docx", "A 29975-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 43303-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GNESTA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Dvärgbägarlav
 Garnlav
@@ -1216,123 +1307,32 @@
 Tjäder</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 43303-2024 artfynd.xlsx", "A 43303-2024")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 43303-2024 karta.png", "A 43303-2024")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 43303-2024 FSC-klagomål.docx", "A 43303-2024")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 43303-2024 FSC-klagomål mail.docx", "A 43303-2024")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 43303-2024 tillsynsbegäran.docx", "A 43303-2024")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 43303-2024 tillsynsbegäran mail.docx", "A 43303-2024")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/fåglar/A 43303-2024 prioriterade fågelarter.docx", "A 43303-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 29975-2024</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45488.479375</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>GNESTA</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>4</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>7</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Klasefibbla
-Svinrot
-Vanlig backsmörblomma
-Vanlig snok
-Blåsippa
-Gullviva</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 29975-2024 artfynd.xlsx", "A 29975-2024")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 29975-2024 karta.png", "A 29975-2024")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 29975-2024 FSC-klagomål.docx", "A 29975-2024")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 29975-2024 FSC-klagomål mail.docx", "A 29975-2024")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 29975-2024 tillsynsbegäran.docx", "A 29975-2024")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 29975-2024 tillsynsbegäran mail.docx", "A 29975-2024")</f>
         <v/>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
         <v>45671</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>45938.49037037037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>45568</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>45893.80018518519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1705,14 +1705,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 20124-2022</t>
+          <t>A 60448-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44698</v>
+        <v>45643.59896990741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6.2</v>
+        <v>1.8</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1758,135 +1758,135 @@
         <v>3</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Slåtterfibbla
+Tibast
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 60448-2024 artfynd.xlsx", "A 60448-2024")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 60448-2024 karta.png", "A 60448-2024")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 60448-2024 FSC-klagomål.docx", "A 60448-2024")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 60448-2024 FSC-klagomål mail.docx", "A 60448-2024")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 60448-2024 tillsynsbegäran.docx", "A 60448-2024")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 60448-2024 tillsynsbegäran mail.docx", "A 60448-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 20124-2022</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44698</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>GNESTA</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Orange taggsvamp
 Skogshare
 Tallticka</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 20124-2022 artfynd.xlsx", "A 20124-2022")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 20124-2022 karta.png", "A 20124-2022")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 20124-2022 FSC-klagomål.docx", "A 20124-2022")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 20124-2022 FSC-klagomål mail.docx", "A 20124-2022")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 20124-2022 tillsynsbegäran.docx", "A 20124-2022")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 20124-2022 tillsynsbegäran mail.docx", "A 20124-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 60448-2024</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45643.59896990741</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>GNESTA</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Slåtterfibbla
-Tibast
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 60448-2024 artfynd.xlsx", "A 60448-2024")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 60448-2024 karta.png", "A 60448-2024")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 60448-2024 FSC-klagomål.docx", "A 60448-2024")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 60448-2024 FSC-klagomål mail.docx", "A 60448-2024")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 60448-2024 tillsynsbegäran.docx", "A 60448-2024")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 60448-2024 tillsynsbegäran mail.docx", "A 60448-2024")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 59651-2025</t>
+          <t>A 10439-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45992.43287037037</v>
+        <v>45720.67878472222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1898,14 +1898,19 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1933,390 +1938,385 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
+          <t>Blåsippa
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 10439-2025 artfynd.xlsx", "A 10439-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 10439-2025 karta.png", "A 10439-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 10439-2025 FSC-klagomål.docx", "A 10439-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 10439-2025 FSC-klagomål mail.docx", "A 10439-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 10439-2025 tillsynsbegäran.docx", "A 10439-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 10439-2025 tillsynsbegäran mail.docx", "A 10439-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 1702-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45670.77475694445</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>GNESTA</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Tallticka
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 1702-2025 artfynd.xlsx", "A 1702-2025")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 1702-2025 karta.png", "A 1702-2025")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 1702-2025 FSC-klagomål.docx", "A 1702-2025")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 1702-2025 FSC-klagomål mail.docx", "A 1702-2025")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 1702-2025 tillsynsbegäran.docx", "A 1702-2025")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 1702-2025 tillsynsbegäran mail.docx", "A 1702-2025")</f>
+        <v/>
+      </c>
+      <c r="Z17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/fåglar/A 1702-2025 prioriterade fågelarter.docx", "A 1702-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 33954-2024</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45523.46893518518</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>GNESTA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Svartvit taggsvamp
+Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 33954-2024 artfynd.xlsx", "A 33954-2024")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 33954-2024 karta.png", "A 33954-2024")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 33954-2024 FSC-klagomål.docx", "A 33954-2024")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 33954-2024 FSC-klagomål mail.docx", "A 33954-2024")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 33954-2024 tillsynsbegäran.docx", "A 33954-2024")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 33954-2024 tillsynsbegäran mail.docx", "A 33954-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 59407-2025</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45989.49439814815</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>GNESTA</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa
+Gullviva</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 59407-2025 artfynd.xlsx", "A 59407-2025")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 59407-2025 karta.png", "A 59407-2025")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 59407-2025 FSC-klagomål.docx", "A 59407-2025")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 59407-2025 FSC-klagomål mail.docx", "A 59407-2025")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 59407-2025 tillsynsbegäran.docx", "A 59407-2025")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 59407-2025 tillsynsbegäran mail.docx", "A 59407-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 59651-2025</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45992.43287037037</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>GNESTA</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
           <t>Sårläka
 Blåsippa</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 59651-2025 artfynd.xlsx", "A 59651-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 59651-2025 karta.png", "A 59651-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 59651-2025 FSC-klagomål.docx", "A 59651-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 59651-2025 FSC-klagomål mail.docx", "A 59651-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 59651-2025 tillsynsbegäran.docx", "A 59651-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 59651-2025 tillsynsbegäran mail.docx", "A 59651-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 59407-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45989.49439814815</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>GNESTA</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa
-Gullviva</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 59407-2025 artfynd.xlsx", "A 59407-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 59407-2025 karta.png", "A 59407-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 59407-2025 FSC-klagomål.docx", "A 59407-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 59407-2025 FSC-klagomål mail.docx", "A 59407-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 59407-2025 tillsynsbegäran.docx", "A 59407-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 59407-2025 tillsynsbegäran mail.docx", "A 59407-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 10439-2025</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45720.67878472222</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>GNESTA</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 10439-2025 artfynd.xlsx", "A 10439-2025")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 10439-2025 karta.png", "A 10439-2025")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 10439-2025 FSC-klagomål.docx", "A 10439-2025")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 10439-2025 FSC-klagomål mail.docx", "A 10439-2025")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 10439-2025 tillsynsbegäran.docx", "A 10439-2025")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 10439-2025 tillsynsbegäran mail.docx", "A 10439-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 1702-2025</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45670.77475694445</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>GNESTA</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Tallticka
-Tjäder</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 1702-2025 artfynd.xlsx", "A 1702-2025")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 1702-2025 karta.png", "A 1702-2025")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 1702-2025 FSC-klagomål.docx", "A 1702-2025")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 1702-2025 FSC-klagomål mail.docx", "A 1702-2025")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 1702-2025 tillsynsbegäran.docx", "A 1702-2025")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 1702-2025 tillsynsbegäran mail.docx", "A 1702-2025")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/fåglar/A 1702-2025 prioriterade fågelarter.docx", "A 1702-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 33954-2024</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45523.46893518518</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>GNESTA</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Svartvit taggsvamp
-Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 33954-2024 artfynd.xlsx", "A 33954-2024")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 33954-2024 karta.png", "A 33954-2024")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 33954-2024 FSC-klagomål.docx", "A 33954-2024")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 33954-2024 FSC-klagomål mail.docx", "A 33954-2024")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 33954-2024 tillsynsbegäran.docx", "A 33954-2024")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 33954-2024 tillsynsbegäran mail.docx", "A 33954-2024")</f>
         <v/>
       </c>
     </row>
@@ -2330,7 +2330,7 @@
         <v>45779</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44839</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>44295</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44261</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>44830</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,14 +2834,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 62007-2022</t>
+          <t>A 2012-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44918</v>
+        <v>44575</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2853,22 +2853,17 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2883,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -2893,45 +2888,45 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 62007-2022 artfynd.xlsx", "A 62007-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 2012-2022 artfynd.xlsx", "A 2012-2022")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 62007-2022 karta.png", "A 62007-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 2012-2022 karta.png", "A 2012-2022")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 62007-2022 FSC-klagomål.docx", "A 62007-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 2012-2022 FSC-klagomål.docx", "A 2012-2022")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 62007-2022 FSC-klagomål mail.docx", "A 62007-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 2012-2022 FSC-klagomål mail.docx", "A 2012-2022")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 62007-2022 tillsynsbegäran.docx", "A 62007-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 2012-2022 tillsynsbegäran.docx", "A 2012-2022")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 62007-2022 tillsynsbegäran mail.docx", "A 62007-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 2012-2022 tillsynsbegäran mail.docx", "A 2012-2022")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 33825-2022</t>
+          <t>A 49442-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44790</v>
+        <v>44861</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2944,20 +2939,20 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
@@ -2968,55 +2963,55 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Streckvaxskivling</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 33825-2022 artfynd.xlsx", "A 33825-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 49442-2022 artfynd.xlsx", "A 49442-2022")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 33825-2022 karta.png", "A 33825-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 49442-2022 karta.png", "A 49442-2022")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 33825-2022 FSC-klagomål.docx", "A 33825-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 49442-2022 FSC-klagomål.docx", "A 49442-2022")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 33825-2022 FSC-klagomål mail.docx", "A 33825-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 49442-2022 FSC-klagomål mail.docx", "A 49442-2022")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 33825-2022 tillsynsbegäran.docx", "A 33825-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 49442-2022 tillsynsbegäran.docx", "A 49442-2022")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 33825-2022 tillsynsbegäran mail.docx", "A 33825-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 49442-2022 tillsynsbegäran mail.docx", "A 49442-2022")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 51217-2024</t>
+          <t>A 50242-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45603.65131944444</v>
+        <v>45943</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3029,17 +3024,17 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>16.6</v>
+        <v>8.9</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>1</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
@@ -3053,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3063,45 +3058,45 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 51217-2024 artfynd.xlsx", "A 51217-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 50242-2025 artfynd.xlsx", "A 50242-2025")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 51217-2024 karta.png", "A 51217-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 50242-2025 karta.png", "A 50242-2025")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 51217-2024 FSC-klagomål.docx", "A 51217-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 50242-2025 FSC-klagomål.docx", "A 50242-2025")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 51217-2024 FSC-klagomål mail.docx", "A 51217-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 50242-2025 FSC-klagomål mail.docx", "A 50242-2025")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 51217-2024 tillsynsbegäran.docx", "A 51217-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 50242-2025 tillsynsbegäran.docx", "A 50242-2025")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 51217-2024 tillsynsbegäran mail.docx", "A 51217-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 50242-2025 tillsynsbegäran mail.docx", "A 50242-2025")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 9303-2023</t>
+          <t>A 56791-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44980</v>
+        <v>44894</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3114,17 +3109,17 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>1</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
@@ -3138,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3148,45 +3143,45 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 9303-2023 artfynd.xlsx", "A 9303-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 56791-2022 artfynd.xlsx", "A 56791-2022")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 9303-2023 karta.png", "A 9303-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 56791-2022 karta.png", "A 56791-2022")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 9303-2023 FSC-klagomål.docx", "A 9303-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 56791-2022 FSC-klagomål.docx", "A 56791-2022")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 9303-2023 FSC-klagomål mail.docx", "A 9303-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 56791-2022 FSC-klagomål mail.docx", "A 56791-2022")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 9303-2023 tillsynsbegäran.docx", "A 9303-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 56791-2022 tillsynsbegäran.docx", "A 56791-2022")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 9303-2023 tillsynsbegäran mail.docx", "A 9303-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 56791-2022 tillsynsbegäran mail.docx", "A 56791-2022")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 25976-2024</t>
+          <t>A 62007-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45467.69298611111</v>
+        <v>44918</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3198,18 +3193,23 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>5.6</v>
+        <v>0.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>1</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3233,45 +3233,45 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Brun nållav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 25976-2024 artfynd.xlsx", "A 25976-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 62007-2022 artfynd.xlsx", "A 62007-2022")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 25976-2024 karta.png", "A 25976-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 62007-2022 karta.png", "A 62007-2022")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 25976-2024 FSC-klagomål.docx", "A 25976-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 62007-2022 FSC-klagomål.docx", "A 62007-2022")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 25976-2024 FSC-klagomål mail.docx", "A 25976-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 62007-2022 FSC-klagomål mail.docx", "A 62007-2022")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 25976-2024 tillsynsbegäran.docx", "A 25976-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 62007-2022 tillsynsbegäran.docx", "A 62007-2022")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 25976-2024 tillsynsbegäran mail.docx", "A 25976-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 62007-2022 tillsynsbegäran mail.docx", "A 62007-2022")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 2012-2022</t>
+          <t>A 25976-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44575</v>
+        <v>45467.69298611111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3284,13 +3284,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3318,45 +3318,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Brun nållav</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 2012-2022 artfynd.xlsx", "A 2012-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 25976-2024 artfynd.xlsx", "A 25976-2024")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 2012-2022 karta.png", "A 2012-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 25976-2024 karta.png", "A 25976-2024")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 2012-2022 FSC-klagomål.docx", "A 2012-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 25976-2024 FSC-klagomål.docx", "A 25976-2024")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 2012-2022 FSC-klagomål mail.docx", "A 2012-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 25976-2024 FSC-klagomål mail.docx", "A 25976-2024")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 2012-2022 tillsynsbegäran.docx", "A 2012-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 25976-2024 tillsynsbegäran.docx", "A 25976-2024")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 2012-2022 tillsynsbegäran mail.docx", "A 2012-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 25976-2024 tillsynsbegäran mail.docx", "A 25976-2024")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 50242-2025</t>
+          <t>A 7661-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45943</v>
+        <v>44972</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3369,16 +3369,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>8.9</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3403,45 +3403,45 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 50242-2025 artfynd.xlsx", "A 50242-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 7661-2023 artfynd.xlsx", "A 7661-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 50242-2025 karta.png", "A 50242-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 7661-2023 karta.png", "A 7661-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 50242-2025 FSC-klagomål.docx", "A 50242-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 7661-2023 FSC-klagomål.docx", "A 7661-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 50242-2025 FSC-klagomål mail.docx", "A 50242-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 7661-2023 FSC-klagomål mail.docx", "A 7661-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 50242-2025 tillsynsbegäran.docx", "A 50242-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 7661-2023 tillsynsbegäran.docx", "A 7661-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 50242-2025 tillsynsbegäran mail.docx", "A 50242-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 7661-2023 tillsynsbegäran mail.docx", "A 7661-2023")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 7741-2023</t>
+          <t>A 9303-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44973</v>
+        <v>44980</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3488,45 +3488,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 7741-2023 artfynd.xlsx", "A 7741-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 9303-2023 artfynd.xlsx", "A 9303-2023")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 7741-2023 karta.png", "A 7741-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 9303-2023 karta.png", "A 9303-2023")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 7741-2023 FSC-klagomål.docx", "A 7741-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 9303-2023 FSC-klagomål.docx", "A 9303-2023")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 7741-2023 FSC-klagomål mail.docx", "A 7741-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 9303-2023 FSC-klagomål mail.docx", "A 9303-2023")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 7741-2023 tillsynsbegäran.docx", "A 7741-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 9303-2023 tillsynsbegäran.docx", "A 9303-2023")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 7741-2023 tillsynsbegäran mail.docx", "A 7741-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 9303-2023 tillsynsbegäran mail.docx", "A 9303-2023")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 56791-2022</t>
+          <t>A 51217-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44894</v>
+        <v>45603.65131944444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3539,16 +3539,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>16.6</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3573,45 +3573,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 56791-2022 artfynd.xlsx", "A 56791-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 51217-2024 artfynd.xlsx", "A 51217-2024")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 56791-2022 karta.png", "A 56791-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 51217-2024 karta.png", "A 51217-2024")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 56791-2022 FSC-klagomål.docx", "A 56791-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 51217-2024 FSC-klagomål.docx", "A 51217-2024")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 56791-2022 FSC-klagomål mail.docx", "A 56791-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 51217-2024 FSC-klagomål mail.docx", "A 51217-2024")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 56791-2022 tillsynsbegäran.docx", "A 56791-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 51217-2024 tillsynsbegäran.docx", "A 51217-2024")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 56791-2022 tillsynsbegäran mail.docx", "A 56791-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 51217-2024 tillsynsbegäran mail.docx", "A 51217-2024")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 6395-2023</t>
+          <t>A 33825-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44965.65668981482</v>
+        <v>44790</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3624,16 +3624,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3658,31 +3658,31 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Svinrot</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 6395-2023 artfynd.xlsx", "A 6395-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 33825-2022 artfynd.xlsx", "A 33825-2022")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 6395-2023 karta.png", "A 6395-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 33825-2022 karta.png", "A 33825-2022")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 6395-2023 FSC-klagomål.docx", "A 6395-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 33825-2022 FSC-klagomål.docx", "A 33825-2022")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 6395-2023 FSC-klagomål mail.docx", "A 6395-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 33825-2022 FSC-klagomål mail.docx", "A 33825-2022")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 6395-2023 tillsynsbegäran.docx", "A 6395-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 33825-2022 tillsynsbegäran.docx", "A 33825-2022")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 6395-2023 tillsynsbegäran mail.docx", "A 6395-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 33825-2022 tillsynsbegäran mail.docx", "A 33825-2022")</f>
         <v/>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
         <v>44972</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3774,14 +3774,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 17653-2023</t>
+          <t>A 7741-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45036</v>
+        <v>44973</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3794,16 +3794,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3828,31 +3828,31 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Bronspraktbagge</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 17653-2023 artfynd.xlsx", "A 17653-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 7741-2023 artfynd.xlsx", "A 7741-2023")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 17653-2023 karta.png", "A 17653-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 7741-2023 karta.png", "A 7741-2023")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 17653-2023 FSC-klagomål.docx", "A 17653-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 7741-2023 FSC-klagomål.docx", "A 7741-2023")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 17653-2023 FSC-klagomål mail.docx", "A 17653-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 7741-2023 FSC-klagomål mail.docx", "A 7741-2023")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 17653-2023 tillsynsbegäran.docx", "A 17653-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 7741-2023 tillsynsbegäran.docx", "A 7741-2023")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 17653-2023 tillsynsbegäran mail.docx", "A 17653-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 7741-2023 tillsynsbegäran mail.docx", "A 7741-2023")</f>
         <v/>
       </c>
     </row>
@@ -3866,7 +3866,7 @@
         <v>45603.47306712963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45181</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4034,14 +4034,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 7661-2023</t>
+          <t>A 17653-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44972</v>
+        <v>45036</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4054,17 +4054,17 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>5.1</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
         <v>1</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -4088,31 +4088,31 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Bronspraktbagge</t>
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 7661-2023 artfynd.xlsx", "A 7661-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 17653-2023 artfynd.xlsx", "A 17653-2023")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 7661-2023 karta.png", "A 7661-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 17653-2023 karta.png", "A 17653-2023")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 7661-2023 FSC-klagomål.docx", "A 7661-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 17653-2023 FSC-klagomål.docx", "A 17653-2023")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 7661-2023 FSC-klagomål mail.docx", "A 7661-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 17653-2023 FSC-klagomål mail.docx", "A 17653-2023")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 7661-2023 tillsynsbegäran.docx", "A 7661-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 17653-2023 tillsynsbegäran.docx", "A 17653-2023")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 7661-2023 tillsynsbegäran mail.docx", "A 7661-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 17653-2023 tillsynsbegäran mail.docx", "A 17653-2023")</f>
         <v/>
       </c>
     </row>
@@ -4126,7 +4126,7 @@
         <v>45169</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4209,14 +4209,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 49442-2022</t>
+          <t>A 6395-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44861</v>
+        <v>44965.65668981482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4238,10 +4238,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -4256,38 +4256,38 @@
         <v>1</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>Streckvaxskivling</t>
+          <t>Svinrot</t>
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 49442-2022 artfynd.xlsx", "A 49442-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 6395-2023 artfynd.xlsx", "A 6395-2023")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 49442-2022 karta.png", "A 49442-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 6395-2023 karta.png", "A 6395-2023")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 49442-2022 FSC-klagomål.docx", "A 49442-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 6395-2023 FSC-klagomål.docx", "A 6395-2023")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 49442-2022 FSC-klagomål mail.docx", "A 49442-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 6395-2023 FSC-klagomål mail.docx", "A 6395-2023")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 49442-2022 tillsynsbegäran.docx", "A 49442-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 6395-2023 tillsynsbegäran.docx", "A 6395-2023")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 49442-2022 tillsynsbegäran mail.docx", "A 49442-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 6395-2023 tillsynsbegäran mail.docx", "A 6395-2023")</f>
         <v/>
       </c>
     </row>
@@ -4301,7 +4301,7 @@
         <v>44853</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>44334</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>44742</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>44571</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>44607.47239583333</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>44581.78724537037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>44581</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>44726</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>44322</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>44773</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>44468.87005787037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>44594</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>44839</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>44245</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>44497</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>44833</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>44412</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>44287</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>44539</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>44873</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>44584</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>44239</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5672,14 +5672,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 5397-2022</t>
+          <t>A 4469-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44595</v>
+        <v>44589</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5691,13 +5691,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5734,14 +5729,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 4469-2022</t>
+          <t>A 4474-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
         <v>44589</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5754,7 +5749,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5791,14 +5786,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 4474-2022</t>
+          <t>A 14614-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44589</v>
+        <v>44280</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5811,7 +5806,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5848,14 +5843,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 14614-2021</t>
+          <t>A 5397-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44280</v>
+        <v>44595</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5867,8 +5862,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>44797.60569444444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44264</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44587</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44657</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44529</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44426</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44678</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44578</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44776</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6418,14 +6418,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 7386-2021</t>
+          <t>A 42226-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44239</v>
+        <v>44830</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6475,14 +6475,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 42226-2022</t>
+          <t>A 7386-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44830</v>
+        <v>44239</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6539,7 +6539,7 @@
         <v>44484</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44831</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44701</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>44431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>44853</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6827,14 +6827,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 73049-2021</t>
+          <t>A 46079-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44546</v>
+        <v>44442</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6884,14 +6884,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 46079-2021</t>
+          <t>A 73049-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44442</v>
+        <v>44546</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6948,7 +6948,7 @@
         <v>44481</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>44438</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>44846.61579861111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>44491</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44491</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>44781</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>44246</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>44537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44833</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44312.68601851852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44529</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>44599</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44589</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44830</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7759,14 +7759,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 49885-2021</t>
+          <t>A 32320-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44455</v>
+        <v>44781</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7816,14 +7816,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 32320-2022</t>
+          <t>A 43192-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44781</v>
+        <v>44833</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7873,14 +7873,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 43192-2022</t>
+          <t>A 56824-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44833</v>
+        <v>44481</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7930,14 +7930,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 56824-2021</t>
+          <t>A 72529-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44481</v>
+        <v>44546</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7987,14 +7987,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 72529-2021</t>
+          <t>A 49885-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44546</v>
+        <v>44455</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8044,14 +8044,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 8992-2021</t>
+          <t>A 19909-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44246</v>
+        <v>44694</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8101,14 +8101,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 36843-2025</t>
+          <t>A 68362-2021</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45874</v>
+        <v>44528.92554398148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8158,14 +8158,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 19909-2022</t>
+          <t>A 29758-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44694</v>
+        <v>44755</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8215,14 +8215,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 68362-2021</t>
+          <t>A 18695-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44528.92554398148</v>
+        <v>44307</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8272,14 +8272,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 29758-2022</t>
+          <t>A 41103-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44755</v>
+        <v>44423</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8329,14 +8329,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 18695-2021</t>
+          <t>A 4438-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44307</v>
+        <v>44589</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8393,7 +8393,7 @@
         <v>44347.58260416667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8443,14 +8443,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 41103-2021</t>
+          <t>A 71772-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44423</v>
+        <v>44543</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8500,14 +8500,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 4438-2022</t>
+          <t>A 1216-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44589</v>
+        <v>44572.55055555556</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8557,14 +8557,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 38155-2025</t>
+          <t>A 58428-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45882.61208333333</v>
+        <v>44901.94835648148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8614,14 +8614,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 42516-2022</t>
+          <t>A 33288-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44831</v>
+        <v>45518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8671,14 +8671,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 41728-2021</t>
+          <t>A 42200-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44425</v>
+        <v>44830</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>8.1</v>
+        <v>1.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8728,14 +8728,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 71772-2021</t>
+          <t>A 11726-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44543</v>
+        <v>44994</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.1</v>
+        <v>13.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8785,14 +8785,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 37502-2025</t>
+          <t>A 6536-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45877</v>
+        <v>45341</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8842,14 +8842,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 23962-2023</t>
+          <t>A 6086-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45078</v>
+        <v>44599.60993055555</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8899,14 +8899,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 16927-2024</t>
+          <t>A 61896-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45411.67149305555</v>
+        <v>44917</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8918,8 +8918,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8956,14 +8961,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 42520-2022</t>
+          <t>A 62016-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44831</v>
+        <v>44918</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8975,8 +8980,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9013,14 +9023,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 20168-2025</t>
+          <t>A 30911-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45772</v>
+        <v>44767</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9033,7 +9043,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9070,14 +9080,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 9134-2024</t>
+          <t>A 36621-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45358.35663194444</v>
+        <v>44391</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9089,13 +9099,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>4.9</v>
+        <v>10.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9132,14 +9137,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 38159-2025</t>
+          <t>A 1160-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45882.62059027778</v>
+        <v>45666</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9152,7 +9157,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9189,14 +9194,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 38172-2025</t>
+          <t>A 62428-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45882.6340162037</v>
+        <v>45268</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9209,7 +9214,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9246,14 +9251,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 38161-2025</t>
+          <t>A 15205-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45882.62423611111</v>
+        <v>45018.60192129629</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9266,7 +9271,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9303,14 +9308,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 67-2024</t>
+          <t>A 56611-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45293</v>
+        <v>44893</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9323,7 +9328,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9360,14 +9365,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 1549-2022</t>
+          <t>A 14078-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44573</v>
+        <v>44650</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9380,7 +9385,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>32.6</v>
+        <v>6.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9417,14 +9422,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 38178-2025</t>
+          <t>A 9134-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45882.64111111111</v>
+        <v>45358.35663194444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9436,8 +9441,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9474,14 +9484,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 56442-2022</t>
+          <t>A 40830-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44892.77658564815</v>
+        <v>45558</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9494,7 +9504,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.4</v>
+        <v>5.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9531,14 +9541,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 44788-2022</t>
+          <t>A 37113-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44839</v>
+        <v>45539</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9551,7 +9561,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>7</v>
+        <v>1.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9588,14 +9598,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 9047-2021</t>
+          <t>A 37116-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44246</v>
+        <v>45539</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9608,7 +9618,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9645,14 +9655,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 54702-2021</t>
+          <t>A 8437-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44473</v>
+        <v>45353</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9665,7 +9675,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9702,14 +9712,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 62889-2023</t>
+          <t>A 43533-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45272.41775462963</v>
+        <v>45569</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9722,7 +9732,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9759,14 +9769,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 5-2023</t>
+          <t>A 49614-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44927</v>
+        <v>45211</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9779,7 +9789,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9816,14 +9826,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 62967-2023</t>
+          <t>A 56442-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45272</v>
+        <v>44892.77658564815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9836,7 +9846,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>7.4</v>
+        <v>1.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9873,14 +9883,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 28458-2023</t>
+          <t>A 5822-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45103</v>
+        <v>44958</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9893,7 +9903,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>6.4</v>
+        <v>2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9930,14 +9940,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 49011-2022</t>
+          <t>A 8992-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44860.40634259259</v>
+        <v>44246</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9950,7 +9960,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9987,14 +9997,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 57601-2021</t>
+          <t>A 7644-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44484</v>
+        <v>44972</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10006,13 +10016,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10049,14 +10054,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 61629-2023</t>
+          <t>A 37282-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45265.55364583333</v>
+        <v>44397</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10069,7 +10074,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10106,14 +10111,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 39964-2025</t>
+          <t>A 11760-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45892</v>
+        <v>44265.41753472222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10125,8 +10130,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10163,14 +10173,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 62981-2023</t>
+          <t>A 62020-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45272.59262731481</v>
+        <v>44918.48496527778</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10182,8 +10192,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10220,14 +10235,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 49614-2023</t>
+          <t>A 27141-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45211</v>
+        <v>45812</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10240,7 +10255,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10277,14 +10292,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 6979-2024</t>
+          <t>A 61629-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45343</v>
+        <v>45265.55364583333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10297,7 +10312,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10334,14 +10349,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 40481-2025</t>
+          <t>A 2476-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45895.77706018519</v>
+        <v>44579</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10354,7 +10369,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10391,14 +10406,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 15603-2021</t>
+          <t>A 62981-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44285</v>
+        <v>45272.59262731481</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10411,7 +10426,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>8.6</v>
+        <v>0.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10448,14 +10463,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 68389-2021</t>
+          <t>A 18902-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44529.34519675926</v>
+        <v>45044</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10468,7 +10483,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10505,14 +10520,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 57183-2025</t>
+          <t>A 39964-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45979.57028935185</v>
+        <v>45892</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10525,7 +10540,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10562,14 +10577,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 32060-2025</t>
+          <t>A 40481-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45835.44564814815</v>
+        <v>45895.77706018519</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10582,7 +10597,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10619,14 +10634,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 65000-2023</t>
+          <t>A 68389-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45286</v>
+        <v>44529.34519675926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10639,7 +10654,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10676,14 +10691,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 33758-2022</t>
+          <t>A 32060-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44790.34024305556</v>
+        <v>45835.44564814815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10696,7 +10711,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10733,14 +10748,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 3002-2023</t>
+          <t>A 73482-2021</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44945</v>
+        <v>44551</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10750,11 +10765,6 @@
       <c r="E156" t="inlineStr">
         <is>
           <t>GNESTA</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G156" t="n">
@@ -10795,14 +10805,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 40075-2022</t>
+          <t>A 7054-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44819</v>
+        <v>44603</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10815,7 +10825,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10852,14 +10862,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 62428-2023</t>
+          <t>A 49011-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45268</v>
+        <v>44860.40634259259</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10872,7 +10882,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10909,14 +10919,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 57341-2025</t>
+          <t>A 43040-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45979</v>
+        <v>45909.55231481481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10929,7 +10939,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>17.5</v>
+        <v>2.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10966,14 +10976,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 6394-2023</t>
+          <t>A 43263-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44965.65447916667</v>
+        <v>45910</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10986,7 +10996,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.8</v>
+        <v>4.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11023,14 +11033,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 43263-2025</t>
+          <t>A 48304-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45910</v>
+        <v>45205.57822916667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11042,8 +11052,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11080,14 +11095,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 43040-2025</t>
+          <t>A 44272-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45909.55231481481</v>
+        <v>45916.33131944444</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11100,7 +11115,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11137,14 +11152,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 22166-2024</t>
+          <t>A 25635-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45446.24053240741</v>
+        <v>45089.71910879629</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11157,7 +11172,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.5</v>
+        <v>6.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11194,14 +11209,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 34615-2023</t>
+          <t>A 73063-2021</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45140</v>
+        <v>44546</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11214,7 +11229,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11251,14 +11266,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 44272-2025</t>
+          <t>A 6160-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45916.33131944444</v>
+        <v>44599</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11271,7 +11286,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11308,14 +11323,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 63-2024</t>
+          <t>A 34091-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45293</v>
+        <v>45523</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11325,6 +11340,11 @@
       <c r="E166" t="inlineStr">
         <is>
           <t>GNESTA</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G166" t="n">
@@ -11365,14 +11385,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 56720-2023</t>
+          <t>A 3620-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45238</v>
+        <v>45681</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11385,7 +11405,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>4.3</v>
+        <v>0.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11422,14 +11442,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 60157-2025</t>
+          <t>A 61134-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45994.4268287037</v>
+        <v>45645.58368055556</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11442,7 +11462,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11479,14 +11499,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 15205-2023</t>
+          <t>A 21854-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45018.60192129629</v>
+        <v>45068</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11499,7 +11519,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11536,14 +11556,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 60193-2025</t>
+          <t>A 30627-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45994.48403935185</v>
+        <v>45495.4729050926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11556,7 +11576,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11593,14 +11613,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 73063-2021</t>
+          <t>A 8358-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44546</v>
+        <v>45352</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11613,7 +11633,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11650,14 +11670,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 1216-2022</t>
+          <t>A 6394-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44572.55055555556</v>
+        <v>44965.65447916667</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11707,14 +11727,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 36621-2021</t>
+          <t>A 3002-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44391</v>
+        <v>44945</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11726,8 +11746,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>10.5</v>
+        <v>1.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11764,14 +11789,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 6228-2024</t>
+          <t>A 40505-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45337</v>
+        <v>45896</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11784,7 +11809,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>10.4</v>
+        <v>5.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11821,14 +11846,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 29987-2024</t>
+          <t>A 38894-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45488.51107638889</v>
+        <v>45163.56357638889</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11841,7 +11866,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>7.2</v>
+        <v>0.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11878,14 +11903,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 62022-2022</t>
+          <t>A 49332-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44918</v>
+        <v>45938.58184027778</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11897,13 +11922,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11940,14 +11960,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 11726-2023</t>
+          <t>A 45515-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44994</v>
+        <v>45578</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11960,7 +11980,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>13.4</v>
+        <v>1.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11997,14 +12017,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 11746-2023</t>
+          <t>A 33870-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44994</v>
+        <v>45842.543125</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12017,7 +12037,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>7.9</v>
+        <v>4.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12054,14 +12074,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 56799-2021</t>
+          <t>A 36162-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44481</v>
+        <v>44803</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12074,7 +12094,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12111,14 +12131,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 36308-2023</t>
+          <t>A 34425-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45152</v>
+        <v>45133</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12131,7 +12151,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12168,14 +12188,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 6086-2022</t>
+          <t>A 7735-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44599.60993055555</v>
+        <v>44973</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12188,7 +12208,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12225,14 +12245,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 6160-2022</t>
+          <t>A 37197-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44599</v>
+        <v>45875</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12245,7 +12265,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.4</v>
+        <v>3.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12282,14 +12302,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 72341-2021</t>
+          <t>A 21762-2021</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44545.48190972222</v>
+        <v>44322</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12302,7 +12322,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12339,14 +12359,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 8995-2024</t>
+          <t>A 52333-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45357.55609953704</v>
+        <v>45953.68208333333</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12358,8 +12378,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12396,14 +12421,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 20033-2022</t>
+          <t>A 52069-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44697.68427083334</v>
+        <v>45952.64488425926</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12416,7 +12441,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>11.9</v>
+        <v>5.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12453,14 +12478,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 57014-2024</t>
+          <t>A 2291-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45628</v>
+        <v>45673</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12472,13 +12497,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12515,14 +12535,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 11929-2022</t>
+          <t>A 22166-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44635</v>
+        <v>45446.24053240741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12535,7 +12555,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>6.8</v>
+        <v>2.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12572,14 +12592,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 58205-2022</t>
+          <t>A 29987-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44901</v>
+        <v>45488.51107638889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12592,7 +12612,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12629,14 +12649,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 62912-2023</t>
+          <t>A 16927-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45272.45587962963</v>
+        <v>45411.67149305555</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12649,7 +12669,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12686,14 +12706,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 33288-2024</t>
+          <t>A 52849-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45518</v>
+        <v>45957.49063657408</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12706,7 +12726,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12743,14 +12763,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 65082-2023</t>
+          <t>A 21172-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45288</v>
+        <v>45062</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12762,8 +12782,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12800,14 +12825,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 40505-2025</t>
+          <t>A 36843-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45896</v>
+        <v>45874</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12820,7 +12845,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>5.5</v>
+        <v>0.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12857,14 +12882,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 49332-2025</t>
+          <t>A 4391-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45938.58184027778</v>
+        <v>44589</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12877,7 +12902,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12914,14 +12939,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 62071-2025</t>
+          <t>A 65082-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46006.36146990741</v>
+        <v>45288</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12971,14 +12996,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 51747-2023</t>
+          <t>A 37502-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45222</v>
+        <v>45877</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12990,13 +13015,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13033,14 +13053,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 44331-2024</t>
+          <t>A 45766-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45573</v>
+        <v>45195</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13053,7 +13073,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.3</v>
+        <v>6.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13090,14 +13110,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 7644-2023</t>
+          <t>A 28458-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44972</v>
+        <v>45103</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13110,7 +13130,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.3</v>
+        <v>6.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13147,14 +13167,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 1160-2025</t>
+          <t>A 44788-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45666</v>
+        <v>44839</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13167,7 +13187,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13204,14 +13224,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 5509-2026</t>
+          <t>A 36333-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46050.6296412037</v>
+        <v>45152</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13224,7 +13244,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13261,14 +13281,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 29986-2024</t>
+          <t>A 54140-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45488</v>
+        <v>45964.47696759259</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13281,7 +13301,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13318,14 +13338,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 37197-2025</t>
+          <t>A 42516-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45875</v>
+        <v>44831</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13338,7 +13358,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13375,14 +13395,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 21172-2023</t>
+          <t>A 38161-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45062</v>
+        <v>45882.62423611111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13394,13 +13414,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13437,14 +13452,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 62740-2025</t>
+          <t>A 20168-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46008.57366898148</v>
+        <v>45772</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13457,7 +13472,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13494,14 +13509,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 62503-2025</t>
+          <t>A 38159-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46007.59125</v>
+        <v>45882.62059027778</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13514,7 +13529,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13551,14 +13566,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 44381-2024</t>
+          <t>A 38172-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45573</v>
+        <v>45882.6340162037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13571,7 +13586,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>6.3</v>
+        <v>3.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13608,14 +13623,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 61896-2022</t>
+          <t>A 5911-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44917</v>
+        <v>44963.67546296296</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13627,13 +13642,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13670,14 +13680,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 37282-2021</t>
+          <t>A 38178-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44397</v>
+        <v>45882.64111111111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13690,7 +13700,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>10</v>
+        <v>3.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13727,14 +13737,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 10441-2025</t>
+          <t>A 41728-2021</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45720.68267361111</v>
+        <v>44425</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13746,13 +13756,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>2.7</v>
+        <v>8.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13789,14 +13794,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 52069-2025</t>
+          <t>A 38155-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45952.64488425926</v>
+        <v>45882.61208333333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13809,7 +13814,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>5.1</v>
+        <v>2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13846,14 +13851,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 22667-2023</t>
+          <t>A 42973-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45071.63167824074</v>
+        <v>45909.42108796296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13866,7 +13871,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13903,14 +13908,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 56732-2023</t>
+          <t>A 18406-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45238</v>
+        <v>45042</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13922,8 +13927,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13960,14 +13970,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 52333-2025</t>
+          <t>A 67-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45953.68208333333</v>
+        <v>45293</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13979,13 +13989,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14022,14 +14027,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 52849-2025</t>
+          <t>A 14055-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45957.49063657408</v>
+        <v>45008</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14042,7 +14047,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14079,14 +14084,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 62016-2022</t>
+          <t>A 41728-2021</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44918</v>
+        <v>44425</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14098,13 +14103,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>3.6</v>
+        <v>8.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14141,14 +14141,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 39433-2024</t>
+          <t>A 23962-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45551</v>
+        <v>45078</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14198,14 +14198,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 25635-2023</t>
+          <t>A 57183-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45089.71910879629</v>
+        <v>45979.57028935185</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>6.1</v>
+        <v>2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14255,14 +14255,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 43533-2024</t>
+          <t>A 43246-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45569</v>
+        <v>45568</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14274,8 +14274,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14312,14 +14317,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 3227-2023</t>
+          <t>A 6415-2021</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44946</v>
+        <v>44235</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14331,13 +14336,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14374,14 +14374,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 5822-2023</t>
+          <t>A 38379-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44958</v>
+        <v>45546.25673611111</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14431,14 +14431,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 54140-2025</t>
+          <t>A 7794-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45964.47696759259</v>
+        <v>44973</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.3</v>
+        <v>10.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14488,14 +14488,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 36162-2022</t>
+          <t>A 57341-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44803</v>
+        <v>45979</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2</v>
+        <v>17.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14545,14 +14545,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 25525-2024</t>
+          <t>A 20033-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45463</v>
+        <v>44697.68427083334</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>4.8</v>
+        <v>11.9</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14602,14 +14602,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 62653-2023</t>
+          <t>A 40075-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45271.43541666667</v>
+        <v>44819</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14659,14 +14659,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 7292-2023</t>
+          <t>A 7873-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44970</v>
+        <v>45706</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14716,14 +14716,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 34429-2023</t>
+          <t>A 15603-2021</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45133</v>
+        <v>44285</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.9</v>
+        <v>8.6</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14773,14 +14773,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 48738-2021</t>
+          <t>A 16645-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44452</v>
+        <v>44672</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14792,13 +14792,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>11.3</v>
+        <v>1.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14835,14 +14830,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 7873-2025</t>
+          <t>A 62883-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45706</v>
+        <v>45272.39652777778</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14855,7 +14850,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.8</v>
+        <v>4.3</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14892,14 +14887,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 7794-2023</t>
+          <t>A 62889-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44973</v>
+        <v>45272.41775462963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14912,7 +14907,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>10.2</v>
+        <v>0.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14949,14 +14944,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 42973-2025</t>
+          <t>A 41600-2021</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45909.42108796296</v>
+        <v>44425.43130787037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14969,7 +14964,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15006,14 +15001,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 61032-2024</t>
+          <t>A 21174-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45644</v>
+        <v>45062</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15026,7 +15021,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>22</v>
+        <v>1.1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15063,14 +15058,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 61134-2024</t>
+          <t>A 20986-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45645.58368055556</v>
+        <v>45061.45511574074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15082,8 +15077,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15120,14 +15120,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 2160-2025</t>
+          <t>A 60157-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45672</v>
+        <v>45994.4268287037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15177,14 +15177,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 43246-2024</t>
+          <t>A 7777-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45568</v>
+        <v>44973</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15196,13 +15196,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>2</v>
+        <v>5.4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15239,14 +15234,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 4391-2022</t>
+          <t>A 60193-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44589</v>
+        <v>45994.48403935185</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15259,7 +15254,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15296,14 +15291,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 2291-2025</t>
+          <t>A 9884-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45673</v>
+        <v>45716.6593287037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15316,7 +15311,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15353,14 +15348,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 43076-2023</t>
+          <t>A 57601-2021</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45182</v>
+        <v>44484</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15372,8 +15367,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G236" t="n">
-        <v>18.2</v>
+        <v>0.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15410,14 +15410,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 34437-2023</t>
+          <t>A 33833-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45133</v>
+        <v>45520.6219212963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15429,8 +15429,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G237" t="n">
-        <v>9.699999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15467,14 +15472,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 13346-2023</t>
+          <t>A 62247-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45005</v>
+        <v>44922.8935300926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15487,7 +15492,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15524,14 +15529,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 38894-2023</t>
+          <t>A 5233-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45163.56357638889</v>
+        <v>45691</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15544,7 +15549,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15581,14 +15586,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 21854-2023</t>
+          <t>A 7292-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45068</v>
+        <v>44970</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15601,7 +15606,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15638,14 +15643,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 38379-2024</t>
+          <t>A 9047-2021</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45546.25673611111</v>
+        <v>44246</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15658,7 +15663,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15695,14 +15700,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 73482-2021</t>
+          <t>A 19364-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44551</v>
+        <v>45429.33055555556</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15715,7 +15720,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15752,14 +15757,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 73493-2021</t>
+          <t>A 10662-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44551</v>
+        <v>45369</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15772,7 +15777,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15809,14 +15814,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 8437-2024</t>
+          <t>A 62912-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45353</v>
+        <v>45272.45587962963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15829,7 +15834,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15866,14 +15871,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 48304-2023</t>
+          <t>A 5-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45205.57822916667</v>
+        <v>44927</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15885,13 +15890,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G245" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15928,14 +15928,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 47013-2022</t>
+          <t>A 62071-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44852</v>
+        <v>46006.36146990741</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15985,14 +15985,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 14078-2022</t>
+          <t>A 62503-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44650</v>
+        <v>46007.59125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>6.7</v>
+        <v>3.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -16042,14 +16042,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 44208-2023</t>
+          <t>A 62740-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45188</v>
+        <v>46008.57366898148</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16061,13 +16061,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G248" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -16104,14 +16099,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 21174-2023</t>
+          <t>A 22667-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45062</v>
+        <v>45071.63167824074</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16124,7 +16119,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -16161,14 +16156,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 14055-2023</t>
+          <t>A 57014-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45008</v>
+        <v>45628</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16180,8 +16175,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G250" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -16218,14 +16218,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 7054-2022</t>
+          <t>A 65000-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44603</v>
+        <v>45286</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -16275,14 +16275,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 42428-2021</t>
+          <t>A 5509-2026</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44427</v>
+        <v>46050.6296412037</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>9.1</v>
+        <v>3.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16332,14 +16332,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 7777-2023</t>
+          <t>A 48738-2021</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44973</v>
+        <v>44452</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16351,8 +16351,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G253" t="n">
-        <v>5.4</v>
+        <v>11.3</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16389,14 +16394,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 2218-2025</t>
+          <t>A 61032-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45673.44721064815</v>
+        <v>45644</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16409,7 +16414,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.5</v>
+        <v>22</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16446,14 +16451,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 2225-2025</t>
+          <t>A 51375-2022</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45673</v>
+        <v>44869.40445601852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16466,7 +16471,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16503,14 +16508,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 41260-2023</t>
+          <t>A 62967-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45174</v>
+        <v>45272</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16523,7 +16528,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16560,14 +16565,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 44050-2023</t>
+          <t>A 63-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45188.38467592592</v>
+        <v>45293</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16579,13 +16584,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G257" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16622,14 +16622,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 3620-2025</t>
+          <t>A 2225-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45681</v>
+        <v>45673</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16679,14 +16679,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 49909-2023</t>
+          <t>A 47314-2021</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45214</v>
+        <v>44447</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16736,14 +16736,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 60295-2023</t>
+          <t>A 25525-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45257</v>
+        <v>45463</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16793,14 +16793,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 6415-2021</t>
+          <t>A 34615-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44235</v>
+        <v>45140</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>7.5</v>
+        <v>1.2</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16850,14 +16850,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 45766-2023</t>
+          <t>A 33758-2022</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45195</v>
+        <v>44790.34024305556</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>6.7</v>
+        <v>2.3</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16907,14 +16907,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 36205-2022</t>
+          <t>A 19613-2021</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44803</v>
+        <v>44312</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>5.8</v>
+        <v>2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16964,14 +16964,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 53063-2023</t>
+          <t>A 49909-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45227</v>
+        <v>45214</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16983,13 +16983,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G264" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -17026,14 +17021,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 30911-2022</t>
+          <t>A 8995-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44767</v>
+        <v>45357.55609953704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17046,7 +17041,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>3.4</v>
+        <v>18</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -17083,14 +17078,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 6536-2024</t>
+          <t>A 13346-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45341</v>
+        <v>45005</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17103,7 +17098,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -17140,14 +17135,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 42200-2022</t>
+          <t>A 3227-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44830</v>
+        <v>44946</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17159,8 +17154,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G267" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -17197,14 +17197,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 8358-2024</t>
+          <t>A 7653-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45352</v>
+        <v>44972</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -17254,14 +17254,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 56611-2022</t>
+          <t>A 44627-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44893</v>
+        <v>45189</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>5.2</v>
+        <v>1.9</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -17311,14 +17311,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 58428-2022</t>
+          <t>A 7214-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44901.94835648148</v>
+        <v>44970.57342592593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17368,14 +17368,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 62018-2022</t>
+          <t>A 41955-2021</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44918</v>
+        <v>44426</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17387,13 +17387,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G271" t="n">
-        <v>8.1</v>
+        <v>3.3</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17430,14 +17425,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 40830-2024</t>
+          <t>A 62022-2022</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45558</v>
+        <v>44918</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17449,8 +17444,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G272" t="n">
-        <v>5.6</v>
+        <v>0.8</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17487,14 +17487,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 9884-2025</t>
+          <t>A 56732-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45716.6593287037</v>
+        <v>45238</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17544,14 +17544,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 33833-2024</t>
+          <t>A 39433-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45520.6219212963</v>
+        <v>45551</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17563,13 +17563,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G274" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17606,14 +17601,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 16645-2022</t>
+          <t>A 42520-2022</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44672</v>
+        <v>44831</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17626,7 +17621,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17663,14 +17658,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 41955-2021</t>
+          <t>A 44331-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44426</v>
+        <v>45573</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17683,7 +17678,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17720,14 +17715,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 37113-2024</t>
+          <t>A 11929-2022</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45539</v>
+        <v>44635</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17740,7 +17735,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.9</v>
+        <v>6.8</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17777,14 +17772,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 37116-2024</t>
+          <t>A 58205-2022</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45539</v>
+        <v>44901</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17797,7 +17792,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17834,14 +17829,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 5911-2023</t>
+          <t>A 73493-2021</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44963.67546296296</v>
+        <v>44551</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17854,7 +17849,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17891,14 +17886,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 2476-2022</t>
+          <t>A 62018-2022</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44579</v>
+        <v>44918</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17910,8 +17905,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G280" t="n">
-        <v>4.3</v>
+        <v>8.1</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17948,14 +17948,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 19613-2021</t>
+          <t>A 53063-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>44312</v>
+        <v>45227</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17967,8 +17967,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G281" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -18005,14 +18010,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 47314-2021</t>
+          <t>A 29986-2024</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>44447</v>
+        <v>45488</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18025,7 +18030,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -18062,14 +18067,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 30627-2024</t>
+          <t>A 44208-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45495.4729050926</v>
+        <v>45188</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18081,8 +18086,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G283" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -18119,14 +18129,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 10662-2024</t>
+          <t>A 54702-2021</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45369</v>
+        <v>44473</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18139,7 +18149,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -18176,14 +18186,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 62020-2022</t>
+          <t>A 57930-2023</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>44918.48496527778</v>
+        <v>45247</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18195,13 +18205,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G285" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -18238,14 +18243,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 55619-2024</t>
+          <t>A 60295-2023</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45622</v>
+        <v>45257</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18258,7 +18263,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -18295,14 +18300,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 19364-2024</t>
+          <t>A 36205-2022</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45429.33055555556</v>
+        <v>44803</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18315,7 +18320,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0.5</v>
+        <v>5.8</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -18352,14 +18357,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 41728-2021</t>
+          <t>A 34437-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>44425</v>
+        <v>45133</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18372,7 +18377,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>8.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -18409,14 +18414,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 11760-2021</t>
+          <t>A 42428-2021</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>44265.41753472222</v>
+        <v>44427</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18428,13 +18433,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G289" t="n">
-        <v>0.2</v>
+        <v>9.1</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -18471,14 +18471,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 21762-2021</t>
+          <t>A 6228-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>44322</v>
+        <v>45337</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1.9</v>
+        <v>10.4</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -18528,14 +18528,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 51375-2022</t>
+          <t>A 62653-2023</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>44869.40445601852</v>
+        <v>45271.43541666667</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -18585,14 +18585,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 44627-2023</t>
+          <t>A 6979-2024</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45189</v>
+        <v>45343</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -18642,14 +18642,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 5928-2023</t>
+          <t>A 72341-2021</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>44963</v>
+        <v>44545.48190972222</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -18699,14 +18699,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 20986-2023</t>
+          <t>A 22228-2024</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45061.45511574074</v>
+        <v>45446.42319444445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18718,13 +18718,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G294" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -18761,14 +18756,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 26138-2024</t>
+          <t>A 56799-2021</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45468.48804398148</v>
+        <v>44481</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18781,7 +18776,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -18818,14 +18813,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 26141-2024</t>
+          <t>A 34596-2023</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45468.49388888889</v>
+        <v>45140</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18838,7 +18833,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18875,14 +18870,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 62247-2022</t>
+          <t>A 41260-2023</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>44922.8935300926</v>
+        <v>45174</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18895,7 +18890,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>0.8</v>
+        <v>5.9</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18932,14 +18927,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 22228-2024</t>
+          <t>A 44381-2024</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45446.42319444445</v>
+        <v>45573</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18952,7 +18947,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>1.6</v>
+        <v>6.3</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18989,14 +18984,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 34696-2022</t>
+          <t>A 1549-2022</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>44795.54640046296</v>
+        <v>44573</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19009,7 +19004,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.9</v>
+        <v>32.6</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -19046,14 +19041,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 7214-2023</t>
+          <t>A 44050-2023</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>44970.57342592593</v>
+        <v>45188.38467592592</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19065,8 +19060,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G300" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -19103,14 +19103,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 36333-2023</t>
+          <t>A 26138-2024</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45152</v>
+        <v>45468.48804398148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -19160,14 +19160,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 8018-2023</t>
+          <t>A 26141-2024</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>44973</v>
+        <v>45468.49388888889</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -19217,14 +19217,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 9575-2021</t>
+          <t>A 59471-2022</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>44251</v>
+        <v>44907.44111111111</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -19274,14 +19274,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 18902-2023</t>
+          <t>A 60948-2024</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45044</v>
+        <v>45645.38166666667</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19293,8 +19293,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G304" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -19331,14 +19336,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 57930-2023</t>
+          <t>A 59380-2023</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45247</v>
+        <v>45253</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19351,7 +19356,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -19388,14 +19393,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 18406-2023</t>
+          <t>A 34696-2022</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45042</v>
+        <v>44795.54640046296</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19407,13 +19412,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G306" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -19450,14 +19450,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 41600-2021</t>
+          <t>A 2218-2025</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>44425.43130787037</v>
+        <v>45673.44721064815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -19507,14 +19507,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 59471-2022</t>
+          <t>A 36308-2023</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>44907.44111111111</v>
+        <v>45152</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -19564,14 +19564,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 34596-2023</t>
+          <t>A 55619-2024</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45140</v>
+        <v>45622</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -19621,14 +19621,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 34091-2024</t>
+          <t>A 47013-2022</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45523</v>
+        <v>44852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19640,13 +19640,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G310" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -19683,14 +19678,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 7653-2023</t>
+          <t>A 56720-2023</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>44972</v>
+        <v>45238</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19703,7 +19698,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -19740,14 +19735,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 7735-2023</t>
+          <t>A 8018-2023</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
         <v>44973</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19760,7 +19755,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -19797,14 +19792,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 62883-2023</t>
+          <t>A 2160-2025</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45272.39652777778</v>
+        <v>45672</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19817,7 +19812,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -19854,14 +19849,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 5233-2025</t>
+          <t>A 5928-2023</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45691</v>
+        <v>44963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19911,14 +19906,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 59380-2023</t>
+          <t>A 9575-2021</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45253</v>
+        <v>44251</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19931,7 +19926,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -19968,14 +19963,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 60948-2024</t>
+          <t>A 43076-2023</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45645.38166666667</v>
+        <v>45182</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19987,13 +19982,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F316" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G316" t="n">
-        <v>3.3</v>
+        <v>18.2</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -20030,14 +20020,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 25915-2024</t>
+          <t>A 34429-2023</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45467.59578703704</v>
+        <v>45133</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20050,7 +20040,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -20087,14 +20077,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 55864-2023</t>
+          <t>A 51747-2023</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45239</v>
+        <v>45222</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20106,8 +20096,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G318" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -20144,14 +20139,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 64-2024</t>
+          <t>A 10441-2025</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45293</v>
+        <v>45720.68267361111</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20163,8 +20158,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G319" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -20201,14 +20201,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 30638-2024</t>
+          <t>A 11746-2023</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45495.56300925926</v>
+        <v>44994</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>2.5</v>
+        <v>7.9</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -20258,14 +20258,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 24166-2025</t>
+          <t>A 25915-2024</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45796.67364583333</v>
+        <v>45467.59578703704</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -20315,14 +20315,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 10331-2025</t>
+          <t>A 64-2024</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45720.48327546296</v>
+        <v>45293</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -20372,14 +20372,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 24170-2025</t>
+          <t>A 55864-2023</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45796.67907407408</v>
+        <v>45239</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20392,7 +20392,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -20429,14 +20429,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 24172-2025</t>
+          <t>A 24416-2025</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45796.68408564815</v>
+        <v>45797.67483796296</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20449,7 +20449,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -20486,14 +20486,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 24416-2025</t>
+          <t>A 24166-2025</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45797.67483796296</v>
+        <v>45796.67364583333</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -20543,14 +20543,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 27141-2025</t>
+          <t>A 24172-2025</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45812</v>
+        <v>45796.68408564815</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -20600,14 +20600,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 34425-2023</t>
+          <t>A 24170-2025</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45133</v>
+        <v>45796.67907407408</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -20657,14 +20657,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 33870-2025</t>
+          <t>A 10331-2025</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45842.543125</v>
+        <v>45720.48327546296</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -20714,14 +20714,14 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 45515-2024</t>
+          <t>A 30638-2024</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45578</v>
+        <v>45495.56300925926</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>

--- a/Översikt GNESTA.xlsx
+++ b/Översikt GNESTA.xlsx
@@ -575,7 +575,7 @@
         <v>44659</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>46006.46337962963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>45712</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>45341</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>45530</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>44528</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>45488.479375</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>45568</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>45671</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>45938.49037037037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>45568</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>45893.80018518519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45643.59896990741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44698</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45720.67878472222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>45670.77475694445</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45523.46893518518</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>45989.49439814815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>45992.43287037037</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>45779</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44839</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>44295</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44261</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>44830</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>44575</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>44861</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>45943</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>44894</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44918</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>45467.69298611111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>44972</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>44980</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>45603.65131944444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>44790</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44972</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44973</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>45603.47306712963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45181</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>45036</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>45169</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44965.65668981482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>44853</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>44334</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>44742</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>44571</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>44607.47239583333</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>44581.78724537037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>44581</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>44726</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>44322</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>44773</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>44468.87005787037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>44594</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>44839</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>44245</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>44497</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>44833</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>44412</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>44287</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>44539</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>44873</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>44584</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>44239</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>44589</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>44589</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         <v>44280</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>44595</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44797.60569444444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44264</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44587</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44657</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44529</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44426</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44678</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44578</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44776</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44830</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44239</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>44484</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44831</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44701</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>44431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>44853</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>44442</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>44546</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>44481</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>44438</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>44846.61579861111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>44491</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44491</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>44781</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>44246</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>44537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44833</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44312.68601851852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44529</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>44599</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44589</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44830</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44781</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44833</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44481</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44546</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44455</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44694</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44528.92554398148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44755</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44307</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44423</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44589</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44347.58260416667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44543</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44572.55055555556</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44901.94835648148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>45518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44830</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44994</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>45341</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44599.60993055555</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44917</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>44918</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>44767</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9087,7 +9087,7 @@
         <v>44391</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>45666</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>45268</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>45018.60192129629</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>44893</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9372,7 +9372,7 @@
         <v>44650</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
         <v>45358.35663194444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>45558</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>45539</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>45539</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>45353</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>45569</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>45211</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>44892.77658564815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>44958</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>44246</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>44972</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>44397</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>44265.41753472222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>44918.48496527778</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>45812</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>45265.55364583333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44579</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>45272.59262731481</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>45044</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>45892</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>45895.77706018519</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44529.34519675926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>45835.44564814815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44551</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44603</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44860.40634259259</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>45909.55231481481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>45910</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>45205.57822916667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>45916.33131944444</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>45089.71910879629</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44546</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>44599</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>45523</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>45681</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>45645.58368055556</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>45068</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>45495.4729050926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         <v>45352</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>44965.65447916667</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44945</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>45896</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>45163.56357638889</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>45938.58184027778</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>45578</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>45842.543125</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44803</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>45133</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44973</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>45875</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>44322</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>45953.68208333333</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12428,7 +12428,7 @@
         <v>45952.64488425926</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12485,7 +12485,7 @@
         <v>45673</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12542,7 +12542,7 @@
         <v>45446.24053240741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>45488.51107638889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         <v>45411.67149305555</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>45957.49063657408</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>45062</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>45874</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>44589</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>45288</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>45877</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>45195</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>45103</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44839</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>45152</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>45964.47696759259</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44831</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>45882.62423611111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>45772</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>45882.62059027778</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>45882.6340162037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44963.67546296296</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>45882.64111111111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44425</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>45882.61208333333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>45909.42108796296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>45042</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>45293</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>45008</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44425</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>45078</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>45979.57028935185</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>45568</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44235</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>45546.25673611111</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44973</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>45979</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44697.68427083334</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44819</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>45706</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44285</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44672</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>45272.39652777778</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>45272.41775462963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44425.43130787037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>45062</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>45061.45511574074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>45994.4268287037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>44973</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>45994.48403935185</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>45716.6593287037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>44484</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45520.6219212963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44922.8935300926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>45691</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44970</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44246</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>45429.33055555556</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>45369</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>45272.45587962963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>44927</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>46006.36146990741</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>46007.59125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>46008.57366898148</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>45071.63167824074</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>45628</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>45286</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>46050.6296412037</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>44452</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>45644</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44869.40445601852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>45272</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>45293</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>45673</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44447</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>45463</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>45140</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>44790.34024305556</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44312</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>45214</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>45357.55609953704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45005</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17142,7 +17142,7 @@
         <v>44946</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17204,7 +17204,7 @@
         <v>44972</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17261,7 +17261,7 @@
         <v>45189</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17318,7 +17318,7 @@
         <v>44970.57342592593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17375,7 +17375,7 @@
         <v>44426</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>44918</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17494,7 +17494,7 @@
         <v>45238</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45551</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>44831</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>45573</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         <v>44635</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>44901</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>44551</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>44918</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>45227</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45488</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45188</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44473</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>45247</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>45257</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44803</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45133</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44427</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45337</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>45271.43541666667</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>45343</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44545.48190972222</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>45446.42319444445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44481</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>45140</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>45174</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>45573</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44573</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>45188.38467592592</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>45468.48804398148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19167,7 +19167,7 @@
         <v>45468.49388888889</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19224,7 +19224,7 @@
         <v>44907.44111111111</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19281,7 +19281,7 @@
         <v>45645.38166666667</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19343,7 +19343,7 @@
         <v>45253</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19400,7 +19400,7 @@
         <v>44795.54640046296</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>45673.44721064815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19514,7 +19514,7 @@
         <v>45152</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>45622</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>44852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19685,7 +19685,7 @@
         <v>45238</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19742,7 +19742,7 @@
         <v>44973</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19799,7 +19799,7 @@
         <v>45672</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19856,7 +19856,7 @@
         <v>44963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
         <v>44251</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19970,7 +19970,7 @@
         <v>45182</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20027,7 +20027,7 @@
         <v>45133</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20084,7 +20084,7 @@
         <v>45222</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>45720.68267361111</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20208,7 +20208,7 @@
         <v>44994</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20265,7 +20265,7 @@
         <v>45467.59578703704</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>45293</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20379,7 +20379,7 @@
         <v>45239</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20436,7 +20436,7 @@
         <v>45797.67483796296</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         <v>45796.67364583333</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20550,7 +20550,7 @@
         <v>45796.68408564815</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20607,7 +20607,7 @@
         <v>45796.67907407408</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>45720.48327546296</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>45495.56300925926</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>

--- a/Översikt GNESTA.xlsx
+++ b/Översikt GNESTA.xlsx
@@ -575,7 +575,7 @@
         <v>44659</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>46006.46337962963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>45712</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>45341</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>45530</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>44528</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>45488.479375</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>45568</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>45671</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>45938.49037037037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>45568</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>45893.80018518519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45643.59896990741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44698</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45720.67878472222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>45670.77475694445</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45523.46893518518</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>45989.49439814815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>45992.43287037037</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>45779</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44839</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>44295</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44261</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>44830</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>44575</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>44861</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>45943</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>44894</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44918</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>45467.69298611111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>44972</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>44980</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>45603.65131944444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>44790</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44972</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44973</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>45603.47306712963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45181</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>45036</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>45169</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44965.65668981482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>44853</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>44334</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>44742</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>44571</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>44607.47239583333</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>44581.78724537037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>44581</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>44726</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>44322</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>44773</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>44468.87005787037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>44594</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>44839</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>44245</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>44497</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>44833</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>44412</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>44287</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>44539</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>44873</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>44584</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>44239</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>44589</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>44589</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         <v>44280</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>44595</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44797.60569444444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44264</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44587</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44657</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44529</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44426</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44678</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44578</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44776</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44830</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44239</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>44484</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44831</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44701</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>44431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>44853</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>44442</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>44546</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>44481</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>44438</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>44846.61579861111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>44491</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44491</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>44781</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>44246</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>44537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44833</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44312.68601851852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44529</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>44599</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44589</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44830</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44781</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44833</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44481</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44546</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44455</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44694</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44528.92554398148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44755</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44307</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44423</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44589</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44347.58260416667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44543</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44572.55055555556</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44901.94835648148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>45518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44830</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44994</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>45341</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44599.60993055555</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44917</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>44918</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>44767</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9087,7 +9087,7 @@
         <v>44391</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>45666</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>45268</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>45018.60192129629</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>44893</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9372,7 +9372,7 @@
         <v>44650</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
         <v>45358.35663194444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>45558</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>45539</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>45539</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>45353</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>45569</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>45211</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>44892.77658564815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>44958</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>44246</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>44972</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>44397</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>44265.41753472222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>44918.48496527778</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>45812</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>45265.55364583333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44579</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>45272.59262731481</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>45044</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>45892</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>45895.77706018519</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44529.34519675926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>45835.44564814815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44551</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44603</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44860.40634259259</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>45909.55231481481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>45910</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>45205.57822916667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>45916.33131944444</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>45089.71910879629</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44546</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>44599</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>45523</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>45681</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>45645.58368055556</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>45068</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>45495.4729050926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         <v>45352</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>44965.65447916667</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44945</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>45896</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>45163.56357638889</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>45938.58184027778</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>45578</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>45842.543125</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44803</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>45133</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44973</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>45875</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>44322</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>45953.68208333333</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12428,7 +12428,7 @@
         <v>45952.64488425926</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12485,7 +12485,7 @@
         <v>45673</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12542,7 +12542,7 @@
         <v>45446.24053240741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>45488.51107638889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         <v>45411.67149305555</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>45957.49063657408</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>45062</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>45874</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>44589</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>45288</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>45877</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>45195</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>45103</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44839</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>45152</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>45964.47696759259</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44831</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>45882.62423611111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>45772</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>45882.62059027778</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>45882.6340162037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44963.67546296296</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>45882.64111111111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44425</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>45882.61208333333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>45909.42108796296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>45042</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>45293</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>45008</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44425</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>45078</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>45979.57028935185</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>45568</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44235</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>45546.25673611111</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44973</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>45979</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44697.68427083334</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44819</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>45706</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44285</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44672</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>45272.39652777778</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>45272.41775462963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44425.43130787037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>45062</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>45061.45511574074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>45994.4268287037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>44973</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>45994.48403935185</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>45716.6593287037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>44484</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45520.6219212963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44922.8935300926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>45691</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44970</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44246</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>45429.33055555556</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>45369</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>45272.45587962963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>44927</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>46006.36146990741</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>46007.59125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>46008.57366898148</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>45071.63167824074</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>45628</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>45286</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>46050.6296412037</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>44452</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>45644</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44869.40445601852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>45272</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>45293</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>45673</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44447</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>45463</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>45140</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>44790.34024305556</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44312</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>45214</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>45357.55609953704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45005</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17142,7 +17142,7 @@
         <v>44946</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17204,7 +17204,7 @@
         <v>44972</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17261,7 +17261,7 @@
         <v>45189</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17318,7 +17318,7 @@
         <v>44970.57342592593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17375,7 +17375,7 @@
         <v>44426</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>44918</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17494,7 +17494,7 @@
         <v>45238</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45551</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>44831</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>45573</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         <v>44635</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>44901</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>44551</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>44918</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>45227</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45488</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45188</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44473</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>45247</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>45257</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44803</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45133</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44427</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45337</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>45271.43541666667</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>45343</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44545.48190972222</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>45446.42319444445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44481</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>45140</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>45174</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>45573</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44573</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>45188.38467592592</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>45468.48804398148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19167,7 +19167,7 @@
         <v>45468.49388888889</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19224,7 +19224,7 @@
         <v>44907.44111111111</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19281,7 +19281,7 @@
         <v>45645.38166666667</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19343,7 +19343,7 @@
         <v>45253</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19400,7 +19400,7 @@
         <v>44795.54640046296</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>45673.44721064815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19514,7 +19514,7 @@
         <v>45152</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>45622</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>44852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19685,7 +19685,7 @@
         <v>45238</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19742,7 +19742,7 @@
         <v>44973</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19799,7 +19799,7 @@
         <v>45672</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19856,7 +19856,7 @@
         <v>44963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
         <v>44251</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19970,7 +19970,7 @@
         <v>45182</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20027,7 +20027,7 @@
         <v>45133</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20084,7 +20084,7 @@
         <v>45222</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>45720.68267361111</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20208,7 +20208,7 @@
         <v>44994</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20265,7 +20265,7 @@
         <v>45467.59578703704</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>45293</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20379,7 +20379,7 @@
         <v>45239</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20436,7 +20436,7 @@
         <v>45797.67483796296</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         <v>45796.67364583333</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20550,7 +20550,7 @@
         <v>45796.68408564815</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20607,7 +20607,7 @@
         <v>45796.67907407408</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>45720.48327546296</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>45495.56300925926</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>

--- a/Översikt GNESTA.xlsx
+++ b/Översikt GNESTA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z329"/>
+  <dimension ref="A1:Z330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44659</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>46006.46337962963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>45712</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>45341</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>45530</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>44528</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,14 +1148,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 29975-2024</t>
+          <t>A 43303-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45488.479375</v>
+        <v>45568</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1167,23 +1167,28 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G8" t="n">
-        <v>6.7</v>
+        <v>10.3</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1192,15 +1197,110 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>7</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Dvärgbägarlav
+Garnlav
+Motaggsvamp
+Svart taggsvamp
+Vedskivlav
+Dropptaggsvamp
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 43303-2024 artfynd.xlsx", "A 43303-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 43303-2024 karta.png", "A 43303-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 43303-2024 FSC-klagomål.docx", "A 43303-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 43303-2024 FSC-klagomål mail.docx", "A 43303-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 43303-2024 tillsynsbegäran.docx", "A 43303-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 43303-2024 tillsynsbegäran mail.docx", "A 43303-2024")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/fåglar/A 43303-2024 prioriterade fågelarter.docx", "A 43303-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 29975-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45488.479375</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GNESTA</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Ask
 Klasefibbla
@@ -1211,128 +1311,28 @@
 Gullviva</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 29975-2024 artfynd.xlsx", "A 29975-2024")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 29975-2024 karta.png", "A 29975-2024")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 29975-2024 FSC-klagomål.docx", "A 29975-2024")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 29975-2024 FSC-klagomål mail.docx", "A 29975-2024")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 29975-2024 tillsynsbegäran.docx", "A 29975-2024")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 29975-2024 tillsynsbegäran mail.docx", "A 29975-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 43303-2024</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45568</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>GNESTA</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>5</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>7</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Dvärgbägarlav
-Garnlav
-Motaggsvamp
-Svart taggsvamp
-Vedskivlav
-Dropptaggsvamp
-Tjäder</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 43303-2024 artfynd.xlsx", "A 43303-2024")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 43303-2024 karta.png", "A 43303-2024")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 43303-2024 FSC-klagomål.docx", "A 43303-2024")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 43303-2024 FSC-klagomål mail.docx", "A 43303-2024")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 43303-2024 tillsynsbegäran.docx", "A 43303-2024")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 43303-2024 tillsynsbegäran mail.docx", "A 43303-2024")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/fåglar/A 43303-2024 prioriterade fågelarter.docx", "A 43303-2024")</f>
         <v/>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
         <v>45671</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>45938.49037037037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>45568</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>45893.80018518519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1705,14 +1705,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 60448-2024</t>
+          <t>A 20124-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45643.59896990741</v>
+        <v>44698</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.8</v>
+        <v>6.2</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1758,121 +1758,121 @@
         <v>3</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp
+Skogshare
+Tallticka</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 20124-2022 artfynd.xlsx", "A 20124-2022")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 20124-2022 karta.png", "A 20124-2022")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 20124-2022 FSC-klagomål.docx", "A 20124-2022")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 20124-2022 FSC-klagomål mail.docx", "A 20124-2022")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 20124-2022 tillsynsbegäran.docx", "A 20124-2022")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 20124-2022 tillsynsbegäran mail.docx", "A 20124-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 60448-2024</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45643.59896990741</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>GNESTA</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Slåtterfibbla
 Tibast
 Blåsippa</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 60448-2024 artfynd.xlsx", "A 60448-2024")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 60448-2024 karta.png", "A 60448-2024")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 60448-2024 FSC-klagomål.docx", "A 60448-2024")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 60448-2024 FSC-klagomål mail.docx", "A 60448-2024")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 60448-2024 tillsynsbegäran.docx", "A 60448-2024")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 60448-2024 tillsynsbegäran mail.docx", "A 60448-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 20124-2022</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>44698</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>GNESTA</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>3</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Orange taggsvamp
-Skogshare
-Tallticka</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 20124-2022 artfynd.xlsx", "A 20124-2022")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 20124-2022 karta.png", "A 20124-2022")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 20124-2022 FSC-klagomål.docx", "A 20124-2022")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 20124-2022 FSC-klagomål mail.docx", "A 20124-2022")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 20124-2022 tillsynsbegäran.docx", "A 20124-2022")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 20124-2022 tillsynsbegäran mail.docx", "A 20124-2022")</f>
         <v/>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
         <v>45720.67878472222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1970,14 +1970,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 1702-2025</t>
+          <t>A 59651-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45670.77475694445</v>
+        <v>45992.43287037037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,16 +1990,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -2024,299 +2024,299 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
+          <t>Sårläka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 59651-2025 artfynd.xlsx", "A 59651-2025")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 59651-2025 karta.png", "A 59651-2025")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 59651-2025 FSC-klagomål.docx", "A 59651-2025")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 59651-2025 FSC-klagomål mail.docx", "A 59651-2025")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 59651-2025 tillsynsbegäran.docx", "A 59651-2025")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 59651-2025 tillsynsbegäran mail.docx", "A 59651-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 59407-2025</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45989.49439814815</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>GNESTA</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa
+Gullviva</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 59407-2025 artfynd.xlsx", "A 59407-2025")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 59407-2025 karta.png", "A 59407-2025")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 59407-2025 FSC-klagomål.docx", "A 59407-2025")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 59407-2025 FSC-klagomål mail.docx", "A 59407-2025")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 59407-2025 tillsynsbegäran.docx", "A 59407-2025")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 59407-2025 tillsynsbegäran mail.docx", "A 59407-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 1702-2025</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45670.77475694445</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>GNESTA</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
           <t>Tallticka
 Tjäder</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 1702-2025 artfynd.xlsx", "A 1702-2025")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 1702-2025 karta.png", "A 1702-2025")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 1702-2025 FSC-klagomål.docx", "A 1702-2025")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 1702-2025 FSC-klagomål mail.docx", "A 1702-2025")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 1702-2025 tillsynsbegäran.docx", "A 1702-2025")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 1702-2025 tillsynsbegäran mail.docx", "A 1702-2025")</f>
         <v/>
       </c>
-      <c r="Z17">
+      <c r="Z19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/fåglar/A 1702-2025 prioriterade fågelarter.docx", "A 1702-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 33954-2024</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>45523.46893518518</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>GNESTA</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
+      <c r="C20" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>GNESTA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Holmen skog AB</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="G20" t="n">
         <v>5.4</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>2</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Svartvit taggsvamp
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 33954-2024 artfynd.xlsx", "A 33954-2024")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 33954-2024 karta.png", "A 33954-2024")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 33954-2024 FSC-klagomål.docx", "A 33954-2024")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 33954-2024 FSC-klagomål mail.docx", "A 33954-2024")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 33954-2024 tillsynsbegäran.docx", "A 33954-2024")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 33954-2024 tillsynsbegäran mail.docx", "A 33954-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 59407-2025</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45989.49439814815</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>GNESTA</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa
-Gullviva</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 59407-2025 artfynd.xlsx", "A 59407-2025")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 59407-2025 karta.png", "A 59407-2025")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 59407-2025 FSC-klagomål.docx", "A 59407-2025")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 59407-2025 FSC-klagomål mail.docx", "A 59407-2025")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 59407-2025 tillsynsbegäran.docx", "A 59407-2025")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 59407-2025 tillsynsbegäran mail.docx", "A 59407-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 59651-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45992.43287037037</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>GNESTA</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Sårläka
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 59651-2025 artfynd.xlsx", "A 59651-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 59651-2025 karta.png", "A 59651-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 59651-2025 FSC-klagomål.docx", "A 59651-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 59651-2025 FSC-klagomål mail.docx", "A 59651-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 59651-2025 tillsynsbegäran.docx", "A 59651-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 59651-2025 tillsynsbegäran mail.docx", "A 59651-2025")</f>
         <v/>
       </c>
     </row>
@@ -2330,7 +2330,7 @@
         <v>45779</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44839</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>44295</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44261</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>44830</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,14 +2834,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 2012-2022</t>
+          <t>A 33825-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44575</v>
+        <v>44790</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -2888,45 +2888,45 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 2012-2022 artfynd.xlsx", "A 2012-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 33825-2022 artfynd.xlsx", "A 33825-2022")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 2012-2022 karta.png", "A 2012-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 33825-2022 karta.png", "A 33825-2022")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 2012-2022 FSC-klagomål.docx", "A 2012-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 33825-2022 FSC-klagomål.docx", "A 33825-2022")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 2012-2022 FSC-klagomål mail.docx", "A 2012-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 33825-2022 FSC-klagomål mail.docx", "A 33825-2022")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 2012-2022 tillsynsbegäran.docx", "A 2012-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 33825-2022 tillsynsbegäran.docx", "A 33825-2022")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 2012-2022 tillsynsbegäran mail.docx", "A 2012-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 33825-2022 tillsynsbegäran mail.docx", "A 33825-2022")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 49442-2022</t>
+          <t>A 51217-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44861</v>
+        <v>45603.65131944444</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2939,10 +2939,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.6</v>
+        <v>16.6</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2963,55 +2963,55 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Streckvaxskivling</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 49442-2022 artfynd.xlsx", "A 49442-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 51217-2024 artfynd.xlsx", "A 51217-2024")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 49442-2022 karta.png", "A 49442-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 51217-2024 karta.png", "A 51217-2024")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 49442-2022 FSC-klagomål.docx", "A 49442-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 51217-2024 FSC-klagomål.docx", "A 51217-2024")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 49442-2022 FSC-klagomål mail.docx", "A 49442-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 51217-2024 FSC-klagomål mail.docx", "A 51217-2024")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 49442-2022 tillsynsbegäran.docx", "A 49442-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 51217-2024 tillsynsbegäran.docx", "A 51217-2024")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 49442-2022 tillsynsbegäran mail.docx", "A 49442-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 51217-2024 tillsynsbegäran mail.docx", "A 51217-2024")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 50242-2025</t>
+          <t>A 9303-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45943</v>
+        <v>44980</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3024,16 +3024,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>8.9</v>
+        <v>0.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3058,45 +3058,45 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 50242-2025 artfynd.xlsx", "A 50242-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 9303-2023 artfynd.xlsx", "A 9303-2023")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 50242-2025 karta.png", "A 50242-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 9303-2023 karta.png", "A 9303-2023")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 50242-2025 FSC-klagomål.docx", "A 50242-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 9303-2023 FSC-klagomål.docx", "A 9303-2023")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 50242-2025 FSC-klagomål mail.docx", "A 50242-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 9303-2023 FSC-klagomål mail.docx", "A 9303-2023")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 50242-2025 tillsynsbegäran.docx", "A 50242-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 9303-2023 tillsynsbegäran.docx", "A 9303-2023")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 50242-2025 tillsynsbegäran mail.docx", "A 50242-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 9303-2023 tillsynsbegäran mail.docx", "A 9303-2023")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 56791-2022</t>
+          <t>A 25976-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44894</v>
+        <v>45467.69298611111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3109,16 +3109,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>5.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3143,45 +3143,45 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Brun nållav</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 56791-2022 artfynd.xlsx", "A 56791-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 25976-2024 artfynd.xlsx", "A 25976-2024")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 56791-2022 karta.png", "A 56791-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 25976-2024 karta.png", "A 25976-2024")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 56791-2022 FSC-klagomål.docx", "A 56791-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 25976-2024 FSC-klagomål.docx", "A 25976-2024")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 56791-2022 FSC-klagomål mail.docx", "A 56791-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 25976-2024 FSC-klagomål mail.docx", "A 25976-2024")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 56791-2022 tillsynsbegäran.docx", "A 56791-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 25976-2024 tillsynsbegäran.docx", "A 25976-2024")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 56791-2022 tillsynsbegäran mail.docx", "A 56791-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 25976-2024 tillsynsbegäran mail.docx", "A 25976-2024")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 62007-2022</t>
+          <t>A 2012-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44918</v>
+        <v>44575</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3193,22 +3193,17 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3223,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3233,45 +3228,45 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 62007-2022 artfynd.xlsx", "A 62007-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 2012-2022 artfynd.xlsx", "A 2012-2022")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 62007-2022 karta.png", "A 62007-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 2012-2022 karta.png", "A 2012-2022")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 62007-2022 FSC-klagomål.docx", "A 62007-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 2012-2022 FSC-klagomål.docx", "A 2012-2022")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 62007-2022 FSC-klagomål mail.docx", "A 62007-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 2012-2022 FSC-klagomål mail.docx", "A 2012-2022")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 62007-2022 tillsynsbegäran.docx", "A 62007-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 2012-2022 tillsynsbegäran.docx", "A 2012-2022")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 62007-2022 tillsynsbegäran mail.docx", "A 62007-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 2012-2022 tillsynsbegäran mail.docx", "A 2012-2022")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 25976-2024</t>
+          <t>A 7741-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45467.69298611111</v>
+        <v>44973</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3284,13 +3279,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>5.6</v>
+        <v>3.4</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3318,45 +3313,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Brun nållav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 25976-2024 artfynd.xlsx", "A 25976-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 7741-2023 artfynd.xlsx", "A 7741-2023")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 25976-2024 karta.png", "A 25976-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 7741-2023 karta.png", "A 7741-2023")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 25976-2024 FSC-klagomål.docx", "A 25976-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 7741-2023 FSC-klagomål.docx", "A 7741-2023")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 25976-2024 FSC-klagomål mail.docx", "A 25976-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 7741-2023 FSC-klagomål mail.docx", "A 7741-2023")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 25976-2024 tillsynsbegäran.docx", "A 25976-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 7741-2023 tillsynsbegäran.docx", "A 7741-2023")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 25976-2024 tillsynsbegäran mail.docx", "A 25976-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 7741-2023 tillsynsbegäran mail.docx", "A 7741-2023")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 7661-2023</t>
+          <t>A 56791-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44972</v>
+        <v>44894</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3369,17 +3364,17 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
@@ -3393,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3403,45 +3398,45 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 7661-2023 artfynd.xlsx", "A 7661-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 56791-2022 artfynd.xlsx", "A 56791-2022")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 7661-2023 karta.png", "A 7661-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 56791-2022 karta.png", "A 56791-2022")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 7661-2023 FSC-klagomål.docx", "A 7661-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 56791-2022 FSC-klagomål.docx", "A 56791-2022")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 7661-2023 FSC-klagomål mail.docx", "A 7661-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 56791-2022 FSC-klagomål mail.docx", "A 56791-2022")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 7661-2023 tillsynsbegäran.docx", "A 7661-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 56791-2022 tillsynsbegäran.docx", "A 56791-2022")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 7661-2023 tillsynsbegäran mail.docx", "A 7661-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 56791-2022 tillsynsbegäran mail.docx", "A 56791-2022")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 9303-2023</t>
+          <t>A 6395-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44980</v>
+        <v>44965.65668981482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3454,17 +3449,17 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>1</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
@@ -3478,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3488,45 +3483,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Svinrot</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 9303-2023 artfynd.xlsx", "A 9303-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 6395-2023 artfynd.xlsx", "A 6395-2023")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 9303-2023 karta.png", "A 9303-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 6395-2023 karta.png", "A 6395-2023")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 9303-2023 FSC-klagomål.docx", "A 9303-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 6395-2023 FSC-klagomål.docx", "A 6395-2023")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 9303-2023 FSC-klagomål mail.docx", "A 9303-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 6395-2023 FSC-klagomål mail.docx", "A 6395-2023")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 9303-2023 tillsynsbegäran.docx", "A 9303-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 6395-2023 tillsynsbegäran.docx", "A 6395-2023")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 9303-2023 tillsynsbegäran mail.docx", "A 9303-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 6395-2023 tillsynsbegäran mail.docx", "A 6395-2023")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 51217-2024</t>
+          <t>A 7681-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45603.65131944444</v>
+        <v>44972</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3539,17 +3534,17 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>16.6</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>1</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
@@ -3563,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3573,45 +3568,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Gullklöver</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 51217-2024 artfynd.xlsx", "A 51217-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 7681-2023 artfynd.xlsx", "A 7681-2023")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 51217-2024 karta.png", "A 51217-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 7681-2023 karta.png", "A 7681-2023")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 51217-2024 FSC-klagomål.docx", "A 51217-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 7681-2023 FSC-klagomål.docx", "A 7681-2023")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 51217-2024 FSC-klagomål mail.docx", "A 51217-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 7681-2023 FSC-klagomål mail.docx", "A 7681-2023")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 51217-2024 tillsynsbegäran.docx", "A 51217-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 7681-2023 tillsynsbegäran.docx", "A 7681-2023")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 51217-2024 tillsynsbegäran mail.docx", "A 51217-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 7681-2023 tillsynsbegäran mail.docx", "A 7681-2023")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 33825-2022</t>
+          <t>A 50242-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44790</v>
+        <v>45943</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3624,17 +3619,17 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5.7</v>
+        <v>8.9</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
@@ -3648,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3658,45 +3653,45 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 33825-2022 artfynd.xlsx", "A 33825-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 50242-2025 artfynd.xlsx", "A 50242-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 33825-2022 karta.png", "A 33825-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 50242-2025 karta.png", "A 50242-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 33825-2022 FSC-klagomål.docx", "A 33825-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 50242-2025 FSC-klagomål.docx", "A 50242-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 33825-2022 FSC-klagomål mail.docx", "A 33825-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 50242-2025 FSC-klagomål mail.docx", "A 50242-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 33825-2022 tillsynsbegäran.docx", "A 33825-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 50242-2025 tillsynsbegäran.docx", "A 50242-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 33825-2022 tillsynsbegäran mail.docx", "A 33825-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 50242-2025 tillsynsbegäran mail.docx", "A 50242-2025")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 7681-2023</t>
+          <t>A 62007-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44972</v>
+        <v>44918</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3708,8 +3703,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3743,45 +3743,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Gullklöver</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 7681-2023 artfynd.xlsx", "A 7681-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 62007-2022 artfynd.xlsx", "A 62007-2022")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 7681-2023 karta.png", "A 7681-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 62007-2022 karta.png", "A 62007-2022")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 7681-2023 FSC-klagomål.docx", "A 7681-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 62007-2022 FSC-klagomål.docx", "A 62007-2022")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 7681-2023 FSC-klagomål mail.docx", "A 7681-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 62007-2022 FSC-klagomål mail.docx", "A 62007-2022")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 7681-2023 tillsynsbegäran.docx", "A 7681-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 62007-2022 tillsynsbegäran.docx", "A 62007-2022")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 7681-2023 tillsynsbegäran mail.docx", "A 7681-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 62007-2022 tillsynsbegäran mail.docx", "A 62007-2022")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 7741-2023</t>
+          <t>A 17653-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44973</v>
+        <v>45036</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3794,17 +3794,17 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>1</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3828,31 +3828,31 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Bronspraktbagge</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 7741-2023 artfynd.xlsx", "A 7741-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 17653-2023 artfynd.xlsx", "A 17653-2023")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 7741-2023 karta.png", "A 7741-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 17653-2023 karta.png", "A 17653-2023")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 7741-2023 FSC-klagomål.docx", "A 7741-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 17653-2023 FSC-klagomål.docx", "A 17653-2023")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 7741-2023 FSC-klagomål mail.docx", "A 7741-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 17653-2023 FSC-klagomål mail.docx", "A 17653-2023")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 7741-2023 tillsynsbegäran.docx", "A 7741-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 17653-2023 tillsynsbegäran.docx", "A 17653-2023")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 7741-2023 tillsynsbegäran mail.docx", "A 7741-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 17653-2023 tillsynsbegäran mail.docx", "A 17653-2023")</f>
         <v/>
       </c>
     </row>
@@ -3866,7 +3866,7 @@
         <v>45603.47306712963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45181</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4034,14 +4034,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 17653-2023</t>
+          <t>A 7661-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45036</v>
+        <v>44972</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4054,16 +4054,16 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5.1</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -4088,31 +4088,31 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>Bronspraktbagge</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 17653-2023 artfynd.xlsx", "A 17653-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 7661-2023 artfynd.xlsx", "A 7661-2023")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 17653-2023 karta.png", "A 17653-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 7661-2023 karta.png", "A 7661-2023")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 17653-2023 FSC-klagomål.docx", "A 17653-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 7661-2023 FSC-klagomål.docx", "A 7661-2023")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 17653-2023 FSC-klagomål mail.docx", "A 17653-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 7661-2023 FSC-klagomål mail.docx", "A 7661-2023")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 17653-2023 tillsynsbegäran.docx", "A 17653-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 7661-2023 tillsynsbegäran.docx", "A 7661-2023")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 17653-2023 tillsynsbegäran mail.docx", "A 17653-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 7661-2023 tillsynsbegäran mail.docx", "A 7661-2023")</f>
         <v/>
       </c>
     </row>
@@ -4126,7 +4126,7 @@
         <v>45169</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4209,14 +4209,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 6395-2023</t>
+          <t>A 49442-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44965.65668981482</v>
+        <v>44861</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4238,10 +4238,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>1</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -4256,38 +4256,38 @@
         <v>1</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>Svinrot</t>
+          <t>Streckvaxskivling</t>
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 6395-2023 artfynd.xlsx", "A 6395-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 49442-2022 artfynd.xlsx", "A 49442-2022")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 6395-2023 karta.png", "A 6395-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 49442-2022 karta.png", "A 49442-2022")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 6395-2023 FSC-klagomål.docx", "A 6395-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 49442-2022 FSC-klagomål.docx", "A 49442-2022")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 6395-2023 FSC-klagomål mail.docx", "A 6395-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 49442-2022 FSC-klagomål mail.docx", "A 49442-2022")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 6395-2023 tillsynsbegäran.docx", "A 6395-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 49442-2022 tillsynsbegäran.docx", "A 49442-2022")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 6395-2023 tillsynsbegäran mail.docx", "A 6395-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 49442-2022 tillsynsbegäran mail.docx", "A 49442-2022")</f>
         <v/>
       </c>
     </row>
@@ -4301,7 +4301,7 @@
         <v>44853</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>44334</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>44742</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>44571</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>44607.47239583333</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>44581.78724537037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>44581</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>44726</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>44322</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>44773</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>44468.87005787037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>44594</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>44839</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>44245</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>44497</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>44833</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>44412</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>44287</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>44539</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>44873</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>44584</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>44239</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5672,14 +5672,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 4469-2022</t>
+          <t>A 5397-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44589</v>
+        <v>44595</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5691,8 +5691,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5729,14 +5734,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 4474-2022</t>
+          <t>A 4469-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
         <v>44589</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5749,7 +5754,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5786,14 +5791,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 14614-2021</t>
+          <t>A 4474-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44280</v>
+        <v>44589</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5806,7 +5811,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5843,14 +5848,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 5397-2022</t>
+          <t>A 14614-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44595</v>
+        <v>44280</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5862,13 +5867,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5905,14 +5905,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 35173-2022</t>
+          <t>A 11703-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44797.60569444444</v>
+        <v>44264</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5962,14 +5962,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 11703-2021</t>
+          <t>A 35173-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44264</v>
+        <v>44797.60569444444</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6026,7 +6026,7 @@
         <v>44587</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44657</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44529</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44426</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44678</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44578</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44776</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44830</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44239</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>44484</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44831</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44701</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>44431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6770,14 +6770,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 47969-2022</t>
+          <t>A 73049-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44853</v>
+        <v>44546</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6827,14 +6827,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 46079-2021</t>
+          <t>A 47969-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44442</v>
+        <v>44853</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6884,14 +6884,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 73049-2021</t>
+          <t>A 46079-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44546</v>
+        <v>44442</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6948,7 +6948,7 @@
         <v>44481</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>44438</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>44846.61579861111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>44491</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44491</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>44781</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>44246</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>44537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44833</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44312.68601851852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7531,14 +7531,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 68687-2021</t>
+          <t>A 6155-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44529</v>
+        <v>44599</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7588,14 +7588,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 6155-2022</t>
+          <t>A 68687-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44599</v>
+        <v>44529</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7652,7 +7652,7 @@
         <v>44589</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44830</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7759,14 +7759,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 32320-2022</t>
+          <t>A 49885-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44781</v>
+        <v>44455</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7816,14 +7816,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 43192-2022</t>
+          <t>A 32320-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44833</v>
+        <v>44781</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7873,14 +7873,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 56824-2021</t>
+          <t>A 43192-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44481</v>
+        <v>44833</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7930,14 +7930,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 72529-2021</t>
+          <t>A 56824-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44546</v>
+        <v>44481</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.4</v>
+        <v>3.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7987,14 +7987,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 49885-2021</t>
+          <t>A 72529-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44455</v>
+        <v>44546</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8044,14 +8044,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 19909-2022</t>
+          <t>A 68362-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44694</v>
+        <v>44528.92554398148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8101,14 +8101,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 68362-2021</t>
+          <t>A 19909-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44528.92554398148</v>
+        <v>44694</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8165,7 +8165,7 @@
         <v>44755</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44307</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8272,14 +8272,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 41103-2021</t>
+          <t>A 4438-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44423</v>
+        <v>44589</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8329,14 +8329,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 4438-2022</t>
+          <t>A 41103-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44589</v>
+        <v>44423</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8393,7 +8393,7 @@
         <v>44347.58260416667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44543</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8500,14 +8500,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 1216-2022</t>
+          <t>A 16927-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44572.55055555556</v>
+        <v>45411.67149305555</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8557,14 +8557,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 58428-2022</t>
+          <t>A 9134-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44901.94835648148</v>
+        <v>45358.35663194444</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8576,8 +8576,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>1.1</v>
+        <v>4.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8614,14 +8619,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 33288-2024</t>
+          <t>A 44788-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45518</v>
+        <v>44839</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8634,7 +8639,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.8</v>
+        <v>7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8671,14 +8676,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 42200-2022</t>
+          <t>A 6979-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44830</v>
+        <v>45343</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8691,7 +8696,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8728,14 +8733,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 11726-2023</t>
+          <t>A 15603-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44994</v>
+        <v>44285</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8748,7 +8753,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>13.4</v>
+        <v>8.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8785,14 +8790,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 6536-2024</t>
+          <t>A 65000-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45341</v>
+        <v>45286</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8805,7 +8810,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8842,14 +8847,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 6086-2022</t>
+          <t>A 33758-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44599.60993055555</v>
+        <v>44790.34024305556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8862,7 +8867,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8899,14 +8904,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 61896-2022</t>
+          <t>A 3002-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44917</v>
+        <v>44945</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8924,7 +8929,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8961,14 +8966,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 62016-2022</t>
+          <t>A 62428-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44918</v>
+        <v>45268</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8980,13 +8985,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9023,14 +9023,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 30911-2022</t>
+          <t>A 40075-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44767</v>
+        <v>44819</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9080,14 +9080,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 36621-2021</t>
+          <t>A 22166-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44391</v>
+        <v>45446.24053240741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>10.5</v>
+        <v>2.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9137,14 +9137,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 1160-2025</t>
+          <t>A 34615-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45666</v>
+        <v>45140</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9194,14 +9194,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 62428-2023</t>
+          <t>A 56720-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45268</v>
+        <v>45238</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9251,14 +9251,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 15205-2023</t>
+          <t>A 63-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45018.60192129629</v>
+        <v>45293</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9308,14 +9308,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 56611-2022</t>
+          <t>A 73063-2021</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44893</v>
+        <v>44546</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>5.2</v>
+        <v>0.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9365,14 +9365,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 14078-2022</t>
+          <t>A 1216-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44650</v>
+        <v>44572.55055555556</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>6.7</v>
+        <v>0.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9422,14 +9422,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 9134-2024</t>
+          <t>A 6228-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45358.35663194444</v>
+        <v>45337</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9441,13 +9441,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>4.9</v>
+        <v>10.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9484,14 +9479,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 40830-2024</t>
+          <t>A 36621-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45558</v>
+        <v>44391</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9504,7 +9499,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5.6</v>
+        <v>10.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9541,14 +9536,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 37113-2024</t>
+          <t>A 29987-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45539</v>
+        <v>45488.51107638889</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9561,7 +9556,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.9</v>
+        <v>7.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9598,14 +9593,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 37116-2024</t>
+          <t>A 11726-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45539</v>
+        <v>44994</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9618,7 +9613,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.1</v>
+        <v>13.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9655,14 +9650,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 8437-2024</t>
+          <t>A 11746-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45353</v>
+        <v>44994</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9675,7 +9670,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.5</v>
+        <v>7.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9712,14 +9707,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 43533-2024</t>
+          <t>A 56799-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45569</v>
+        <v>44481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9732,7 +9727,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9769,14 +9764,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 49614-2023</t>
+          <t>A 62022-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45211</v>
+        <v>44918</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9788,8 +9783,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9826,14 +9826,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 56442-2022</t>
+          <t>A 72341-2021</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44892.77658564815</v>
+        <v>44545.48190972222</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9883,14 +9883,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 5822-2023</t>
+          <t>A 6086-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44958</v>
+        <v>44599.60993055555</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9940,14 +9940,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 8992-2021</t>
+          <t>A 6160-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44246</v>
+        <v>44599</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9997,14 +9997,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 7644-2023</t>
+          <t>A 8995-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44972</v>
+        <v>45357.55609953704</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.3</v>
+        <v>18</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10054,14 +10054,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 37282-2021</t>
+          <t>A 58205-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44397</v>
+        <v>44901</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10111,14 +10111,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 11760-2021</t>
+          <t>A 20033-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44265.41753472222</v>
+        <v>44697.68427083334</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10130,13 +10130,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>0.2</v>
+        <v>11.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10173,14 +10168,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 62020-2022</t>
+          <t>A 57014-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44918.48496527778</v>
+        <v>45628</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10194,11 +10189,11 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10235,14 +10230,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 27141-2025</t>
+          <t>A 62912-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45812</v>
+        <v>45272.45587962963</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10292,14 +10287,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 61629-2023</t>
+          <t>A 11929-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45265.55364583333</v>
+        <v>44635</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10312,7 +10307,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10349,14 +10344,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 2476-2022</t>
+          <t>A 33288-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44579</v>
+        <v>45518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10369,7 +10364,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.3</v>
+        <v>0.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10406,14 +10401,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 62981-2023</t>
+          <t>A 51747-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45272.59262731481</v>
+        <v>45222</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10425,8 +10420,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10463,14 +10463,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 18902-2023</t>
+          <t>A 44331-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45044</v>
+        <v>45573</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10520,14 +10520,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 39964-2025</t>
+          <t>A 7644-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45892</v>
+        <v>44972</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10577,14 +10577,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 40481-2025</t>
+          <t>A 1160-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45895.77706018519</v>
+        <v>45666</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10634,14 +10634,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 68389-2021</t>
+          <t>A 29986-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44529.34519675926</v>
+        <v>45488</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10691,14 +10691,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 32060-2025</t>
+          <t>A 21172-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45835.44564814815</v>
+        <v>45062</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10710,8 +10710,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10748,14 +10753,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 73482-2021</t>
+          <t>A 44381-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44551</v>
+        <v>45573</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10768,7 +10773,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.9</v>
+        <v>6.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10805,14 +10810,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 7054-2022</t>
+          <t>A 61896-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44603</v>
+        <v>44917</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10824,8 +10829,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10862,14 +10872,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 49011-2022</t>
+          <t>A 37282-2021</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44860.40634259259</v>
+        <v>44397</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10882,7 +10892,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.9</v>
+        <v>10</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10919,14 +10929,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 43040-2025</t>
+          <t>A 38155-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45909.55231481481</v>
+        <v>45882.61208333333</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10939,7 +10949,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10976,14 +10986,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 43263-2025</t>
+          <t>A 41728-2021</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45910</v>
+        <v>44425</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10996,7 +11006,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>4.8</v>
+        <v>8.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11033,14 +11043,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 48304-2023</t>
+          <t>A 10441-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45205.57822916667</v>
+        <v>45720.68267361111</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11054,11 +11064,11 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11095,14 +11105,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 44272-2025</t>
+          <t>A 22667-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45916.33131944444</v>
+        <v>45071.63167824074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11115,7 +11125,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11152,14 +11162,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 25635-2023</t>
+          <t>A 56732-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45089.71910879629</v>
+        <v>45238</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11172,7 +11182,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>6.1</v>
+        <v>2.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11209,14 +11219,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 73063-2021</t>
+          <t>A 23962-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44546</v>
+        <v>45078</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11229,7 +11239,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11266,14 +11276,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 6160-2022</t>
+          <t>A 62016-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44599</v>
+        <v>44918</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11285,8 +11295,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11323,14 +11338,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 34091-2024</t>
+          <t>A 39433-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45523</v>
+        <v>45551</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11342,13 +11357,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11385,14 +11395,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 3620-2025</t>
+          <t>A 25635-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45681</v>
+        <v>45089.71910879629</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11405,7 +11415,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.5</v>
+        <v>6.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11442,14 +11452,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 61134-2024</t>
+          <t>A 43533-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45645.58368055556</v>
+        <v>45569</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11462,7 +11472,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11499,14 +11509,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 21854-2023</t>
+          <t>A 5822-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45068</v>
+        <v>44958</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11519,7 +11529,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11556,14 +11566,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 30627-2024</t>
+          <t>A 61629-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45495.4729050926</v>
+        <v>45265.55364583333</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11576,7 +11586,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11613,14 +11623,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 8358-2024</t>
+          <t>A 39964-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45352</v>
+        <v>45892</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11633,7 +11643,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11670,14 +11680,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 6394-2023</t>
+          <t>A 62981-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44965.65447916667</v>
+        <v>45272.59262731481</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11690,7 +11700,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11727,14 +11737,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 3002-2023</t>
+          <t>A 40481-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44945</v>
+        <v>45895.77706018519</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11746,13 +11756,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11789,14 +11794,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 40505-2025</t>
+          <t>A 36162-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45896</v>
+        <v>44803</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11809,7 +11814,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11846,14 +11851,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 38894-2023</t>
+          <t>A 34425-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45163.56357638889</v>
+        <v>45133</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11866,7 +11871,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.6</v>
+        <v>4.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11903,14 +11908,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 49332-2025</t>
+          <t>A 33870-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45938.58184027778</v>
+        <v>45842.543125</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11923,7 +11928,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11960,14 +11965,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 45515-2024</t>
+          <t>A 62653-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45578</v>
+        <v>45271.43541666667</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11980,7 +11985,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12017,14 +12022,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 33870-2025</t>
+          <t>A 45515-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45842.543125</v>
+        <v>45578</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12037,7 +12042,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>4.8</v>
+        <v>1.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12074,14 +12079,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 36162-2022</t>
+          <t>A 32060-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44803</v>
+        <v>45835.44564814815</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12094,7 +12099,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12131,14 +12136,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 34425-2023</t>
+          <t>A 34429-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
         <v>45133</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12151,7 +12156,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>4.4</v>
+        <v>1.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12188,14 +12193,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 7735-2023</t>
+          <t>A 48738-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44973</v>
+        <v>44452</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12207,8 +12212,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>1.9</v>
+        <v>11.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12245,14 +12255,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 37197-2025</t>
+          <t>A 7794-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45875</v>
+        <v>44973</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12265,7 +12275,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.9</v>
+        <v>10.2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12302,14 +12312,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 21762-2021</t>
+          <t>A 61032-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44322</v>
+        <v>45644</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12322,7 +12332,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.9</v>
+        <v>22</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12359,14 +12369,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 52333-2025</t>
+          <t>A 61134-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45953.68208333333</v>
+        <v>45645.58368055556</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12378,13 +12388,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12421,14 +12426,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 52069-2025</t>
+          <t>A 43263-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45952.64488425926</v>
+        <v>45910</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12441,7 +12446,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12478,14 +12483,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 2291-2025</t>
+          <t>A 43040-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45673</v>
+        <v>45909.55231481481</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12535,14 +12540,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 22166-2024</t>
+          <t>A 36843-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45446.24053240741</v>
+        <v>45874</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12555,7 +12560,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12592,14 +12597,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 29987-2024</t>
+          <t>A 2160-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45488.51107638889</v>
+        <v>45672</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12612,7 +12617,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>7.2</v>
+        <v>1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12649,14 +12654,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 16927-2024</t>
+          <t>A 43246-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45411.67149305555</v>
+        <v>45568</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12668,8 +12673,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12706,14 +12716,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 52849-2025</t>
+          <t>A 44272-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45957.49063657408</v>
+        <v>45916.33131944444</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12726,7 +12736,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12763,14 +12773,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 21172-2023</t>
+          <t>A 43076-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45062</v>
+        <v>45182</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12782,13 +12792,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>0.8</v>
+        <v>18.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12825,14 +12830,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 36843-2025</t>
+          <t>A 13346-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45874</v>
+        <v>45005</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12845,7 +12850,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12882,14 +12887,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 4391-2022</t>
+          <t>A 38894-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44589</v>
+        <v>45163.56357638889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12902,7 +12907,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12939,14 +12944,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 65082-2023</t>
+          <t>A 21854-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45288</v>
+        <v>45068</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12959,7 +12964,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13003,7 +13008,7 @@
         <v>45877</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13053,14 +13058,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 45766-2023</t>
+          <t>A 20168-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45195</v>
+        <v>45772</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13073,7 +13078,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>6.7</v>
+        <v>1.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13110,14 +13115,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 28458-2023</t>
+          <t>A 38159-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45103</v>
+        <v>45882.62059027778</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13130,7 +13135,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>6.4</v>
+        <v>4.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13167,14 +13172,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 44788-2022</t>
+          <t>A 38172-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44839</v>
+        <v>45882.6340162037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13187,7 +13192,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13224,14 +13229,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 36333-2023</t>
+          <t>A 38161-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45152</v>
+        <v>45882.62423611111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13244,7 +13249,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>4.9</v>
+        <v>2.8</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13281,14 +13286,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 54140-2025</t>
+          <t>A 67-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45964.47696759259</v>
+        <v>45293</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13301,7 +13306,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13338,14 +13343,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 42516-2022</t>
+          <t>A 48304-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44831</v>
+        <v>45205.57822916667</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13357,8 +13362,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13395,14 +13405,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 38161-2025</t>
+          <t>A 38178-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45882.62423611111</v>
+        <v>45882.64111111111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13415,7 +13425,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13452,14 +13462,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 20168-2025</t>
+          <t>A 47013-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45772</v>
+        <v>44852</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13472,7 +13482,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13509,14 +13519,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 38159-2025</t>
+          <t>A 44208-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45882.62059027778</v>
+        <v>45188</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13528,8 +13538,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13566,14 +13581,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 38172-2025</t>
+          <t>A 21174-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45882.6340162037</v>
+        <v>45062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13586,7 +13601,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13623,14 +13638,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 5911-2023</t>
+          <t>A 14055-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44963.67546296296</v>
+        <v>45008</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13643,7 +13658,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13680,14 +13695,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 38178-2025</t>
+          <t>A 42428-2021</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45882.64111111111</v>
+        <v>44427</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13700,7 +13715,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3.7</v>
+        <v>9.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13737,14 +13752,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 41728-2021</t>
+          <t>A 7777-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44425</v>
+        <v>44973</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13757,7 +13772,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>8.1</v>
+        <v>5.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13794,14 +13809,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 38155-2025</t>
+          <t>A 8992-2021</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45882.61208333333</v>
+        <v>44246</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13814,7 +13829,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13851,14 +13866,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 42973-2025</t>
+          <t>A 42516-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45909.42108796296</v>
+        <v>44831</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13871,7 +13886,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13908,14 +13923,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 18406-2023</t>
+          <t>A 42520-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45042</v>
+        <v>44831</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13927,13 +13942,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13970,14 +13980,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 67-2024</t>
+          <t>A 40505-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45293</v>
+        <v>45896</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13990,7 +14000,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14027,14 +14037,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 14055-2023</t>
+          <t>A 49332-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45008</v>
+        <v>45938.58184027778</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14047,7 +14057,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14084,14 +14094,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 41728-2021</t>
+          <t>A 1549-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44425</v>
+        <v>44573</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14104,7 +14114,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>8.1</v>
+        <v>32.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14141,14 +14151,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 23962-2023</t>
+          <t>A 56442-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45078</v>
+        <v>44892.77658564815</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14161,7 +14171,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14198,14 +14208,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 57183-2025</t>
+          <t>A 9047-2021</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45979.57028935185</v>
+        <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14218,7 +14228,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14255,14 +14265,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 43246-2024</t>
+          <t>A 54702-2021</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45568</v>
+        <v>44473</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14274,13 +14284,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14317,14 +14322,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 6415-2021</t>
+          <t>A 62889-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44235</v>
+        <v>45272.41775462963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14337,7 +14342,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>7.5</v>
+        <v>0.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14374,14 +14379,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 38379-2024</t>
+          <t>A 37197-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45546.25673611111</v>
+        <v>45875</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14394,7 +14399,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14431,14 +14436,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 7794-2023</t>
+          <t>A 5-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44973</v>
+        <v>44927</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14451,7 +14456,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>10.2</v>
+        <v>1.9</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14488,14 +14493,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 57341-2025</t>
+          <t>A 62967-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45979</v>
+        <v>45272</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14508,7 +14513,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>17.5</v>
+        <v>7.4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14545,14 +14550,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 20033-2022</t>
+          <t>A 28458-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44697.68427083334</v>
+        <v>45103</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14565,7 +14570,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>11.9</v>
+        <v>6.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14602,14 +14607,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 40075-2022</t>
+          <t>A 49011-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44819</v>
+        <v>44860.40634259259</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14622,7 +14627,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14659,14 +14664,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 7873-2025</t>
+          <t>A 57601-2021</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45706</v>
+        <v>44484</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14678,8 +14683,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14716,14 +14726,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 15603-2021</t>
+          <t>A 52069-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44285</v>
+        <v>45952.64488425926</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14736,7 +14746,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>8.6</v>
+        <v>5.1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14773,14 +14783,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 16645-2022</t>
+          <t>A 52333-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44672</v>
+        <v>45953.68208333333</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14792,8 +14802,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14830,14 +14845,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 62883-2023</t>
+          <t>A 49614-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45272.39652777778</v>
+        <v>45211</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14850,7 +14865,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14887,14 +14902,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 62889-2023</t>
+          <t>A 52849-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45272.41775462963</v>
+        <v>45957.49063657408</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14907,7 +14922,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14944,14 +14959,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 41600-2021</t>
+          <t>A 68389-2021</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44425.43130787037</v>
+        <v>44529.34519675926</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14964,7 +14979,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15001,14 +15016,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 21174-2023</t>
+          <t>A 6394-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45062</v>
+        <v>44965.65447916667</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15021,7 +15036,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15058,14 +15073,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 20986-2023</t>
+          <t>A 15205-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45061.45511574074</v>
+        <v>45018.60192129629</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15077,13 +15092,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15120,14 +15130,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 60157-2025</t>
+          <t>A 54140-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45994.4268287037</v>
+        <v>45964.47696759259</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15140,7 +15150,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15177,14 +15187,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 7777-2023</t>
+          <t>A 36308-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44973</v>
+        <v>45152</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15197,7 +15207,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15234,14 +15244,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 60193-2025</t>
+          <t>A 65082-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45994.48403935185</v>
+        <v>45288</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15254,7 +15264,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15291,14 +15301,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 9884-2025</t>
+          <t>A 3227-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45716.6593287037</v>
+        <v>44946</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15310,8 +15320,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G235" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15348,14 +15363,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 57601-2021</t>
+          <t>A 42973-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44484</v>
+        <v>45909.42108796296</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15367,13 +15382,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15410,14 +15420,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 33833-2024</t>
+          <t>A 25525-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45520.6219212963</v>
+        <v>45463</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15429,13 +15439,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G237" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15472,14 +15477,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 62247-2022</t>
+          <t>A 7292-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44922.8935300926</v>
+        <v>44970</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15492,7 +15497,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15529,14 +15534,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 5233-2025</t>
+          <t>A 7873-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45691</v>
+        <v>45706</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15549,7 +15554,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15586,14 +15591,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 7292-2023</t>
+          <t>A 4391-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44970</v>
+        <v>44589</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15606,7 +15611,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15643,14 +15648,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 9047-2021</t>
+          <t>A 2291-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44246</v>
+        <v>45673</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15663,7 +15668,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15700,14 +15705,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 19364-2024</t>
+          <t>A 34437-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45429.33055555556</v>
+        <v>45133</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15720,7 +15725,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15757,14 +15762,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 10662-2024</t>
+          <t>A 57183-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45369</v>
+        <v>45979.57028935185</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15814,14 +15819,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 62912-2023</t>
+          <t>A 38379-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45272.45587962963</v>
+        <v>45546.25673611111</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15834,7 +15839,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15871,14 +15876,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 5-2023</t>
+          <t>A 73482-2021</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44927</v>
+        <v>44551</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15928,14 +15933,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 62071-2025</t>
+          <t>A 73493-2021</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>46006.36146990741</v>
+        <v>44551</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15948,7 +15953,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15985,14 +15990,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 62503-2025</t>
+          <t>A 8437-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>46007.59125</v>
+        <v>45353</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16005,7 +16010,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -16042,14 +16047,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 62740-2025</t>
+          <t>A 57341-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>46008.57366898148</v>
+        <v>45979</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16062,7 +16067,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2</v>
+        <v>17.5</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -16099,14 +16104,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 22667-2023</t>
+          <t>A 14078-2022</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45071.63167824074</v>
+        <v>44650</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16119,7 +16124,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2.1</v>
+        <v>6.7</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -16156,14 +16161,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 57014-2024</t>
+          <t>A 7054-2022</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45628</v>
+        <v>44603</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16175,13 +16180,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G250" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -16218,14 +16218,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 65000-2023</t>
+          <t>A 60157-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45286</v>
+        <v>45994.4268287037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -16275,14 +16275,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 5509-2026</t>
+          <t>A 60193-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>46050.6296412037</v>
+        <v>45994.48403935185</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16332,14 +16332,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 48738-2021</t>
+          <t>A 2218-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44452</v>
+        <v>45673.44721064815</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16351,13 +16351,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G253" t="n">
-        <v>11.3</v>
+        <v>1.5</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16394,14 +16389,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 61032-2024</t>
+          <t>A 2225-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45644</v>
+        <v>45673</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16414,7 +16409,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>22</v>
+        <v>1.4</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16451,14 +16446,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 51375-2022</t>
+          <t>A 41260-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44869.40445601852</v>
+        <v>45174</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16471,7 +16466,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.7</v>
+        <v>5.9</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16508,14 +16503,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 62967-2023</t>
+          <t>A 44050-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45272</v>
+        <v>45188.38467592592</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16527,8 +16522,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G256" t="n">
-        <v>7.4</v>
+        <v>1.3</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16565,14 +16565,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 63-2024</t>
+          <t>A 3620-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45293</v>
+        <v>45681</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16622,14 +16622,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 2225-2025</t>
+          <t>A 49909-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45673</v>
+        <v>45214</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16679,14 +16679,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 47314-2021</t>
+          <t>A 60295-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44447</v>
+        <v>45257</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16736,14 +16736,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 25525-2024</t>
+          <t>A 45766-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45463</v>
+        <v>45195</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>4.8</v>
+        <v>6.7</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16793,14 +16793,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 34615-2023</t>
+          <t>A 62071-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45140</v>
+        <v>46006.36146990741</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16850,14 +16850,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 33758-2022</t>
+          <t>A 5509-2026</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44790.34024305556</v>
+        <v>46050.6296412037</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16907,14 +16907,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 19613-2021</t>
+          <t>A 62740-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44312</v>
+        <v>46008.57366898148</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16964,14 +16964,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 49909-2023</t>
+          <t>A 62503-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45214</v>
+        <v>46007.59125</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -17021,14 +17021,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 8995-2024</t>
+          <t>A 36205-2022</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45357.55609953704</v>
+        <v>44803</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>18</v>
+        <v>5.8</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -17078,14 +17078,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 13346-2023</t>
+          <t>A 53063-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45005</v>
+        <v>45227</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17097,8 +17097,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G266" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -17135,14 +17140,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 3227-2023</t>
+          <t>A 30911-2022</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44946</v>
+        <v>44767</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17154,13 +17159,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G267" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -17197,14 +17197,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 7653-2023</t>
+          <t>A 6536-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44972</v>
+        <v>45341</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -17254,14 +17254,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 44627-2023</t>
+          <t>A 42200-2022</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45189</v>
+        <v>44830</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -17311,14 +17311,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 7214-2023</t>
+          <t>A 8358-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44970.57342592593</v>
+        <v>45352</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17368,14 +17368,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 41955-2021</t>
+          <t>A 56611-2022</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44426</v>
+        <v>44893</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>3.3</v>
+        <v>5.2</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17425,14 +17425,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 62022-2022</t>
+          <t>A 58428-2022</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>44918</v>
+        <v>44901.94835648148</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17444,13 +17444,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G272" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17487,14 +17482,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 56732-2023</t>
+          <t>A 7835-2026</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45238</v>
+        <v>46062.64881944445</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17507,7 +17502,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17544,14 +17539,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 39433-2024</t>
+          <t>A 62018-2022</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45551</v>
+        <v>44918</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17563,8 +17558,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G274" t="n">
-        <v>1.3</v>
+        <v>8.1</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17601,14 +17601,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 42520-2022</t>
+          <t>A 7745-2026</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44831</v>
+        <v>46062.54239583333</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17620,8 +17620,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G275" t="n">
-        <v>2.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17658,14 +17663,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 44331-2024</t>
+          <t>A 40830-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45573</v>
+        <v>45558</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17678,7 +17683,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.3</v>
+        <v>5.6</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17715,14 +17720,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 11929-2022</t>
+          <t>A 9884-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44635</v>
+        <v>45716.6593287037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17735,7 +17740,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>6.8</v>
+        <v>1.8</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17772,14 +17777,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 58205-2022</t>
+          <t>A 33833-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44901</v>
+        <v>45520.6219212963</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17791,8 +17796,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G278" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17829,14 +17839,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 73493-2021</t>
+          <t>A 16645-2022</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44551</v>
+        <v>44672</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17849,7 +17859,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17886,14 +17896,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 62018-2022</t>
+          <t>A 41955-2021</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44918</v>
+        <v>44426</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17905,13 +17915,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G280" t="n">
-        <v>8.1</v>
+        <v>3.3</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17948,14 +17953,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 53063-2023</t>
+          <t>A 37113-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45227</v>
+        <v>45539</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17967,13 +17972,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G281" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -18010,14 +18010,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 29986-2024</t>
+          <t>A 37116-2024</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45488</v>
+        <v>45539</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -18067,14 +18067,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 44208-2023</t>
+          <t>A 5911-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45188</v>
+        <v>44963.67546296296</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18086,13 +18086,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G283" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -18129,14 +18124,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 54702-2021</t>
+          <t>A 2476-2022</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44473</v>
+        <v>44579</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18149,7 +18144,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -18186,14 +18181,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 57930-2023</t>
+          <t>A 19613-2021</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45247</v>
+        <v>44312</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18206,7 +18201,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -18243,14 +18238,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 60295-2023</t>
+          <t>A 47314-2021</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45257</v>
+        <v>44447</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18263,7 +18258,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -18300,14 +18295,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 36205-2022</t>
+          <t>A 30627-2024</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>44803</v>
+        <v>45495.4729050926</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18320,7 +18315,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -18357,14 +18352,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 34437-2023</t>
+          <t>A 10662-2024</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45133</v>
+        <v>45369</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18377,7 +18372,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>9.699999999999999</v>
+        <v>2</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -18414,14 +18409,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 42428-2021</t>
+          <t>A 62020-2022</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>44427</v>
+        <v>44918.48496527778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18433,8 +18428,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G289" t="n">
-        <v>9.1</v>
+        <v>0.6</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -18471,14 +18471,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 6228-2024</t>
+          <t>A 55619-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45337</v>
+        <v>45622</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>10.4</v>
+        <v>1.7</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -18528,14 +18528,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 62653-2023</t>
+          <t>A 19364-2024</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45271.43541666667</v>
+        <v>45429.33055555556</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -18585,14 +18585,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 6979-2024</t>
+          <t>A 41728-2021</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45343</v>
+        <v>44425</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1.4</v>
+        <v>8.1</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -18642,14 +18642,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 72341-2021</t>
+          <t>A 11760-2021</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>44545.48190972222</v>
+        <v>44265.41753472222</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18661,8 +18661,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G293" t="n">
-        <v>2.1</v>
+        <v>0.2</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -18699,14 +18704,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 22228-2024</t>
+          <t>A 21762-2021</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45446.42319444445</v>
+        <v>44322</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18719,7 +18724,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -18756,14 +18761,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 56799-2021</t>
+          <t>A 51375-2022</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>44481</v>
+        <v>44869.40445601852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18776,7 +18781,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -18813,14 +18818,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 34596-2023</t>
+          <t>A 44627-2023</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45140</v>
+        <v>45189</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18833,7 +18838,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18870,14 +18875,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 41260-2023</t>
+          <t>A 5928-2023</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45174</v>
+        <v>44963</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18890,7 +18895,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>5.9</v>
+        <v>1.2</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18927,14 +18932,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 44381-2024</t>
+          <t>A 20986-2023</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45573</v>
+        <v>45061.45511574074</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18946,8 +18951,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G298" t="n">
-        <v>6.3</v>
+        <v>0.9</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18984,14 +18994,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 1549-2022</t>
+          <t>A 26138-2024</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>44573</v>
+        <v>45468.48804398148</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19004,7 +19014,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>32.6</v>
+        <v>1.7</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -19041,14 +19051,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 44050-2023</t>
+          <t>A 26141-2024</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45188.38467592592</v>
+        <v>45468.49388888889</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19060,13 +19070,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F300" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G300" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -19103,14 +19108,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 26138-2024</t>
+          <t>A 62247-2022</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45468.48804398148</v>
+        <v>44922.8935300926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19123,7 +19128,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -19160,14 +19165,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 26141-2024</t>
+          <t>A 22228-2024</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45468.49388888889</v>
+        <v>45446.42319444445</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19180,7 +19185,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -19217,14 +19222,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 59471-2022</t>
+          <t>A 34696-2022</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>44907.44111111111</v>
+        <v>44795.54640046296</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19237,7 +19242,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -19274,14 +19279,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 60948-2024</t>
+          <t>A 7214-2023</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45645.38166666667</v>
+        <v>44970.57342592593</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19293,13 +19298,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F304" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G304" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -19336,14 +19336,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 59380-2023</t>
+          <t>A 36333-2023</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45253</v>
+        <v>45152</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>0.6</v>
+        <v>4.9</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -19393,14 +19393,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 34696-2022</t>
+          <t>A 8018-2023</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>44795.54640046296</v>
+        <v>44973</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -19450,14 +19450,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 2218-2025</t>
+          <t>A 9575-2021</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45673.44721064815</v>
+        <v>44251</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -19507,14 +19507,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 36308-2023</t>
+          <t>A 18902-2023</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45152</v>
+        <v>45044</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -19564,14 +19564,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 55619-2024</t>
+          <t>A 57930-2023</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45622</v>
+        <v>45247</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -19621,14 +19621,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 47013-2022</t>
+          <t>A 18406-2023</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>44852</v>
+        <v>45042</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19640,8 +19640,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G310" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -19678,14 +19683,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 56720-2023</t>
+          <t>A 41600-2021</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45238</v>
+        <v>44425.43130787037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19698,7 +19703,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -19735,14 +19740,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 8018-2023</t>
+          <t>A 59471-2022</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>44973</v>
+        <v>44907.44111111111</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19755,7 +19760,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -19792,14 +19797,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 2160-2025</t>
+          <t>A 34596-2023</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45672</v>
+        <v>45140</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19812,7 +19817,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -19849,14 +19854,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 5928-2023</t>
+          <t>A 34091-2024</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>44963</v>
+        <v>45523</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19868,8 +19873,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G314" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -19906,14 +19916,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 9575-2021</t>
+          <t>A 7653-2023</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>44251</v>
+        <v>44972</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19926,7 +19936,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -19963,14 +19973,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 43076-2023</t>
+          <t>A 7735-2023</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45182</v>
+        <v>44973</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19983,7 +19993,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>18.2</v>
+        <v>1.9</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -20020,14 +20030,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 34429-2023</t>
+          <t>A 62883-2023</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45133</v>
+        <v>45272.39652777778</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20040,7 +20050,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -20077,14 +20087,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 51747-2023</t>
+          <t>A 5233-2025</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45222</v>
+        <v>45691</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20096,13 +20106,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F318" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G318" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -20139,14 +20144,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 10441-2025</t>
+          <t>A 59380-2023</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45720.68267361111</v>
+        <v>45253</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20158,13 +20163,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F319" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G319" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -20201,14 +20201,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 11746-2023</t>
+          <t>A 60948-2024</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>44994</v>
+        <v>45645.38166666667</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20220,8 +20220,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G320" t="n">
-        <v>7.9</v>
+        <v>3.3</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -20265,7 +20270,7 @@
         <v>45467.59578703704</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20315,14 +20320,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 64-2024</t>
+          <t>A 55864-2023</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45293</v>
+        <v>45239</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20335,7 +20340,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>1.6</v>
+        <v>8</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -20372,14 +20377,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 55864-2023</t>
+          <t>A 64-2024</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45239</v>
+        <v>45293</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20392,7 +20397,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>8</v>
+        <v>1.6</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -20429,14 +20434,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 24416-2025</t>
+          <t>A 30638-2024</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45797.67483796296</v>
+        <v>45495.56300925926</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20449,7 +20454,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -20493,7 +20498,7 @@
         <v>45796.67364583333</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20543,14 +20548,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 24172-2025</t>
+          <t>A 10331-2025</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45796.68408564815</v>
+        <v>45720.48327546296</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20563,7 +20568,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -20607,7 +20612,7 @@
         <v>45796.67907407408</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20657,14 +20662,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 10331-2025</t>
+          <t>A 24172-2025</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45720.48327546296</v>
+        <v>45796.68408564815</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20677,7 +20682,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -20711,17 +20716,17 @@
       </c>
       <c r="R328" s="2" t="inlineStr"/>
     </row>
-    <row r="329">
+    <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 30638-2024</t>
+          <t>A 24416-2025</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45495.56300925926</v>
+        <v>45797.67483796296</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20734,7 +20739,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -20767,6 +20772,63 @@
         <v>0</v>
       </c>
       <c r="R329" s="2" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>A 27141-2025</t>
+        </is>
+      </c>
+      <c r="B330" s="1" t="n">
+        <v>45812</v>
+      </c>
+      <c r="C330" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>GNESTA</t>
+        </is>
+      </c>
+      <c r="G330" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N330" t="n">
+        <v>0</v>
+      </c>
+      <c r="O330" t="n">
+        <v>0</v>
+      </c>
+      <c r="P330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R330" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GNESTA.xlsx
+++ b/Översikt GNESTA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z328"/>
+  <dimension ref="A1:Z327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44659</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45712</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>45530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45341</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44528</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45488.479375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45568</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45671</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>45938.49037037037</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45568</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>45893.80018518519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>45643.59896990741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44698</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>45720.67878472222</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>45670.77475694445</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>45989.49439814815</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2043,14 +2043,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 33954-2024</t>
+          <t>A 59651-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45523.46893518518</v>
+        <v>45992.43287037037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2062,22 +2062,17 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>5.4</v>
+        <v>2.3</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2092,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2102,118 +2097,123 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
+          <t>Sårläka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 59651-2025 artfynd.xlsx", "A 59651-2025")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 59651-2025 karta.png", "A 59651-2025")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 59651-2025 FSC-klagomål.docx", "A 59651-2025")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 59651-2025 FSC-klagomål mail.docx", "A 59651-2025")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 59651-2025 tillsynsbegäran.docx", "A 59651-2025")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 59651-2025 tillsynsbegäran mail.docx", "A 59651-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 33954-2024</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45523.46893518518</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>GNESTA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
           <t>Svartvit taggsvamp
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 33954-2024 artfynd.xlsx", "A 33954-2024")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 33954-2024 karta.png", "A 33954-2024")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 33954-2024 FSC-klagomål.docx", "A 33954-2024")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 33954-2024 FSC-klagomål mail.docx", "A 33954-2024")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 33954-2024 tillsynsbegäran.docx", "A 33954-2024")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 33954-2024 tillsynsbegäran mail.docx", "A 33954-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 59651-2025</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45992.43287037037</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>GNESTA</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Sårläka
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/artfynd/A 59651-2025 artfynd.xlsx", "A 59651-2025")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/kartor/A 59651-2025 karta.png", "A 59651-2025")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomål/A 59651-2025 FSC-klagomål.docx", "A 59651-2025")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/klagomålsmail/A 59651-2025 FSC-klagomål mail.docx", "A 59651-2025")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsyn/A 59651-2025 tillsynsbegäran.docx", "A 59651-2025")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0461/tillsynsmail/A 59651-2025 tillsynsbegäran mail.docx", "A 59651-2025")</f>
         <v/>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
         <v>45779</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>44839</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44295</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44781</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44261</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>44830</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>44575</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44861</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>45943</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>44894</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>44918</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>45467.69298611111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44972</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44980</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45603.65131944444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44790</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44972</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44973</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>45603.47306712963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45181</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>45036</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>45169</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>44965.65668981482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44853</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44334</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>44606</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>44742</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>44571</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>44607.47239583333</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>44581.78724537037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         <v>44581</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         <v>44726</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         <v>44322</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>44773</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>44468.87005787037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>44594</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>44839</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5051,14 +5051,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 8457-2021</t>
+          <t>A 60919-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44245</v>
+        <v>44497</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>9.9</v>
+        <v>1.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5108,14 +5108,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 60919-2021</t>
+          <t>A 43198-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44497</v>
+        <v>44833</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5165,14 +5165,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 43198-2022</t>
+          <t>A 39018-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44833</v>
+        <v>44412</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5222,14 +5222,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 39018-2021</t>
+          <t>A 16221-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44412</v>
+        <v>44287</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5279,14 +5279,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 16221-2021</t>
+          <t>A 71150-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44287</v>
+        <v>44539</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5298,8 +5298,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5336,14 +5341,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 71150-2021</t>
+          <t>A 52247-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44539</v>
+        <v>44873</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5355,13 +5360,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5398,14 +5398,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 52247-2022</t>
+          <t>A 3280-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44873</v>
+        <v>44584</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5455,14 +5455,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 3280-2022</t>
+          <t>A 5397-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44584</v>
+        <v>44595</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5474,8 +5474,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5519,7 +5524,7 @@
         <v>44589</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5576,7 +5581,7 @@
         <v>44589</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5633,7 +5638,7 @@
         <v>44280</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5683,14 +5688,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 5397-2022</t>
+          <t>A 35173-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44595</v>
+        <v>44797.60569444444</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5702,13 +5707,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5745,14 +5745,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 35173-2022</t>
+          <t>A 11703-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44797.60569444444</v>
+        <v>44264</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5802,14 +5802,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 11703-2021</t>
+          <t>A 3863-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44264</v>
+        <v>44587</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5859,14 +5859,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 3863-2022</t>
+          <t>A 15105-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44587</v>
+        <v>44657</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5916,14 +5916,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 15105-2022</t>
+          <t>A 68869-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44657</v>
+        <v>44529</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5973,14 +5973,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 68869-2021</t>
+          <t>A 41914-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44529</v>
+        <v>44426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6030,14 +6030,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 41914-2021</t>
+          <t>A 17304-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44426</v>
+        <v>44678</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.7</v>
+        <v>4.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6087,14 +6087,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 17304-2022</t>
+          <t>A 2276-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44678</v>
+        <v>44578</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.9</v>
+        <v>2.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6144,14 +6144,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 2276-2022</t>
+          <t>A 42226-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44578</v>
+        <v>44830</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6208,7 +6208,7 @@
         <v>44776</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6258,14 +6258,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 42226-2022</t>
+          <t>A 57612-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44830</v>
+        <v>44484</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6277,8 +6277,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6315,14 +6320,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 57612-2021</t>
+          <t>A 42524-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44484</v>
+        <v>44831</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6334,13 +6339,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>1.5</v>
+        <v>14.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6377,14 +6377,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 42524-2022</t>
+          <t>A 20792-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44831</v>
+        <v>44701</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6396,8 +6396,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>14.8</v>
+        <v>0.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6434,14 +6439,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 20792-2022</t>
+          <t>A 43035-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44701</v>
+        <v>44431</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6453,13 +6458,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6496,14 +6496,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 43035-2021</t>
+          <t>A 47969-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44431</v>
+        <v>44853</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6553,14 +6553,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 47969-2022</t>
+          <t>A 73049-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44853</v>
+        <v>44546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6617,7 +6617,7 @@
         <v>44442</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6667,14 +6667,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 73049-2021</t>
+          <t>A 56815-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44546</v>
+        <v>44481</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6724,14 +6724,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 56815-2021</t>
+          <t>A 44943-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44481</v>
+        <v>44438</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6781,14 +6781,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 44943-2021</t>
+          <t>A 45911-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44438</v>
+        <v>44846.61579861111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6800,8 +6800,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6838,14 +6843,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 45911-2022</t>
+          <t>A 59616-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44846.61579861111</v>
+        <v>44491</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6859,11 +6864,11 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6900,14 +6905,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 59616-2021</t>
+          <t>A 59619-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
         <v>44491</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6925,7 +6930,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6962,14 +6967,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 59619-2021</t>
+          <t>A 32273-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44491</v>
+        <v>44781</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6981,13 +6986,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7024,14 +7024,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 32273-2022</t>
+          <t>A 9038-2021</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44781</v>
+        <v>44246</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7081,14 +7081,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 9038-2021</t>
+          <t>A 70782-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44246</v>
+        <v>44537</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7100,8 +7100,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7138,14 +7143,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 70782-2021</t>
+          <t>A 43201-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44537</v>
+        <v>44833</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7157,13 +7162,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7200,14 +7200,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 43201-2022</t>
+          <t>A 19681-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44833</v>
+        <v>44312.68601851852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7257,14 +7257,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 19681-2021</t>
+          <t>A 6155-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44312.68601851852</v>
+        <v>44599</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5.1</v>
+        <v>1.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7321,7 +7321,7 @@
         <v>44529</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7371,14 +7371,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 6155-2022</t>
+          <t>A 4383-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44599</v>
+        <v>44589</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7428,14 +7428,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 4383-2022</t>
+          <t>A 42178-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44589</v>
+        <v>44830</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7485,14 +7485,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 42178-2022</t>
+          <t>A 49885-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44830</v>
+        <v>44455</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7542,14 +7542,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 49885-2021</t>
+          <t>A 32320-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44455</v>
+        <v>44781</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7599,14 +7599,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 32320-2022</t>
+          <t>A 43192-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44781</v>
+        <v>44833</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7663,7 +7663,7 @@
         <v>44481</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>44546</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7770,14 +7770,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 43192-2022</t>
+          <t>A 68362-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44833</v>
+        <v>44528.92554398148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7827,14 +7827,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 68362-2021</t>
+          <t>A 19909-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44528.92554398148</v>
+        <v>44694</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7884,14 +7884,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 19909-2022</t>
+          <t>A 29758-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44694</v>
+        <v>44755</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7941,14 +7941,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 29758-2022</t>
+          <t>A 18695-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44755</v>
+        <v>44307</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7998,14 +7998,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 18695-2021</t>
+          <t>A 4438-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44307</v>
+        <v>44589</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8055,14 +8055,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 41103-2021</t>
+          <t>A 26307-2021</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44423</v>
+        <v>44347.58260416667</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8112,14 +8112,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 26307-2021</t>
+          <t>A 41103-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44347.58260416667</v>
+        <v>44423</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8169,14 +8169,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 4438-2022</t>
+          <t>A 71772-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44589</v>
+        <v>44543</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8226,14 +8226,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 71772-2021</t>
+          <t>A 1216-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44543</v>
+        <v>44572.55055555556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8283,14 +8283,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 1216-2022</t>
+          <t>A 58428-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44572.55055555556</v>
+        <v>44901.94835648148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8340,14 +8340,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 58428-2022</t>
+          <t>A 33288-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44901.94835648148</v>
+        <v>45518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8397,14 +8397,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 33288-2024</t>
+          <t>A 11726-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45518</v>
+        <v>44994</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.8</v>
+        <v>13.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8454,14 +8454,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 42200-2022</t>
+          <t>A 6536-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44830</v>
+        <v>45341</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8511,14 +8511,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 6086-2022</t>
+          <t>A 42200-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44599.60993055555</v>
+        <v>44830</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8568,14 +8568,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 61896-2022</t>
+          <t>A 6086-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44917</v>
+        <v>44599.60993055555</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8587,13 +8587,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8630,14 +8625,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 62016-2022</t>
+          <t>A 30911-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44918</v>
+        <v>44767</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8649,13 +8644,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8692,14 +8682,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 30911-2022</t>
+          <t>A 61896-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44767</v>
+        <v>44917</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8711,8 +8701,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8749,14 +8744,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 36621-2021</t>
+          <t>A 62016-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44391</v>
+        <v>44918</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8768,8 +8763,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>10.5</v>
+        <v>3.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8806,14 +8806,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 62428-2023</t>
+          <t>A 36621-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45268</v>
+        <v>44391</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.7</v>
+        <v>10.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8863,14 +8863,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 11726-2023</t>
+          <t>A 1160-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44994</v>
+        <v>45666</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>13.4</v>
+        <v>2.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8920,14 +8920,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 6536-2024</t>
+          <t>A 15205-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45341</v>
+        <v>45018.60192129629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8977,14 +8977,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 1160-2025</t>
+          <t>A 64-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45666</v>
+        <v>45293</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9034,14 +9034,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 15205-2023</t>
+          <t>A 55864-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45018.60192129629</v>
+        <v>45239</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9091,14 +9091,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 56611-2022</t>
+          <t>A 62428-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44893</v>
+        <v>45268</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>5.2</v>
+        <v>0.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9148,14 +9148,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 40830-2024</t>
+          <t>A 56611-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45558</v>
+        <v>44893</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9205,14 +9205,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 14078-2022</t>
+          <t>A 42973-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44650</v>
+        <v>45909.42108796296</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>6.7</v>
+        <v>1.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9262,14 +9262,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 9134-2024</t>
+          <t>A 40830-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45358.35663194444</v>
+        <v>45558</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9281,13 +9281,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9324,14 +9319,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 37113-2024</t>
+          <t>A 24416-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45539</v>
+        <v>45797.67483796296</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9344,7 +9339,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9381,14 +9376,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 37116-2024</t>
+          <t>A 14078-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45539</v>
+        <v>44650</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9401,7 +9396,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.1</v>
+        <v>6.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9438,14 +9433,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 24416-2025</t>
+          <t>A 24166-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45797.67483796296</v>
+        <v>45796.67364583333</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9458,7 +9453,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9495,14 +9490,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 49614-2023</t>
+          <t>A 24172-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45211</v>
+        <v>45796.68408564815</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9515,7 +9510,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9552,14 +9547,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 24166-2025</t>
+          <t>A 9134-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45796.67364583333</v>
+        <v>45358.35663194444</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9571,8 +9566,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>2.9</v>
+        <v>4.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9609,14 +9609,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 24172-2025</t>
+          <t>A 24170-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45796.68408564815</v>
+        <v>45796.67907407408</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9666,14 +9666,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 24170-2025</t>
+          <t>A 10331-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45796.67907407408</v>
+        <v>45720.48327546296</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9723,14 +9723,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 10331-2025</t>
+          <t>A 30638-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45720.48327546296</v>
+        <v>45495.56300925926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9780,14 +9780,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 30638-2024</t>
+          <t>A 61629-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45495.56300925926</v>
+        <v>45265.55364583333</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9837,14 +9837,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 8437-2024</t>
+          <t>A 62981-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45353</v>
+        <v>45272.59262731481</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9894,14 +9894,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 43533-2024</t>
+          <t>A 37113-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45569</v>
+        <v>45539</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9951,14 +9951,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 61629-2023</t>
+          <t>A 37116-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45265.55364583333</v>
+        <v>45539</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>8.199999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10008,14 +10008,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 62981-2023</t>
+          <t>A 49614-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45272.59262731481</v>
+        <v>45211</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10072,7 +10072,7 @@
         <v>45892</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10122,14 +10122,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 56442-2022</t>
+          <t>A 8437-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44892.77658564815</v>
+        <v>45353</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10186,7 +10186,7 @@
         <v>45895.77706018519</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10236,14 +10236,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 5822-2023</t>
+          <t>A 43533-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44958</v>
+        <v>45569</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10293,14 +10293,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 8992-2021</t>
+          <t>A 57183-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44246</v>
+        <v>45979.57028935185</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10350,14 +10350,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 7644-2023</t>
+          <t>A 32060-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44972</v>
+        <v>45835.44564814815</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10407,14 +10407,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 37282-2021</t>
+          <t>A 56442-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44397</v>
+        <v>44892.77658564815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>10</v>
+        <v>1.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10464,14 +10464,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 11760-2021</t>
+          <t>A 5822-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44265.41753472222</v>
+        <v>44958</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10483,13 +10483,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10526,14 +10521,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 27141-2025</t>
+          <t>A 8992-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45812</v>
+        <v>44246</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10546,7 +10541,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10583,14 +10578,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 32060-2025</t>
+          <t>A 7644-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45835.44564814815</v>
+        <v>44972</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10603,7 +10598,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10640,14 +10635,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 62020-2022</t>
+          <t>A 37282-2021</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44918.48496527778</v>
+        <v>44397</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10659,13 +10654,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>0.6</v>
+        <v>10</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10702,14 +10692,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 43040-2025</t>
+          <t>A 27141-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45909.55231481481</v>
+        <v>45812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10722,7 +10712,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10759,14 +10749,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 2476-2022</t>
+          <t>A 43040-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44579</v>
+        <v>45909.55231481481</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10779,7 +10769,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10816,14 +10806,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 43263-2025</t>
+          <t>A 11760-2021</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45910</v>
+        <v>44265.41753472222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10835,8 +10825,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>4.8</v>
+        <v>0.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10873,14 +10868,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 18902-2023</t>
+          <t>A 43263-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45044</v>
+        <v>45910</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10893,7 +10888,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10930,14 +10925,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 62071-2025</t>
+          <t>A 44272-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46006.36146990741</v>
+        <v>45916.33131944444</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10950,7 +10945,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10987,14 +10982,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 62503-2025</t>
+          <t>A 62020-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46007.59125</v>
+        <v>44918.48496527778</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11006,8 +11001,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11044,14 +11044,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 62740-2025</t>
+          <t>A 2476-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46008.57366898148</v>
+        <v>44579</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11101,14 +11101,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 44272-2025</t>
+          <t>A 18902-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45916.33131944444</v>
+        <v>45044</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11165,7 +11165,7 @@
         <v>44529.34519675926</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11215,14 +11215,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 5509-2026</t>
+          <t>A 73482-2021</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46050.6296412037</v>
+        <v>44551</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11272,14 +11272,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 73482-2021</t>
+          <t>A 7054-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44551</v>
+        <v>44603</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11329,14 +11329,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 7054-2022</t>
+          <t>A 49011-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44603</v>
+        <v>44860.40634259259</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11386,14 +11386,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 49011-2022</t>
+          <t>A 40505-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44860.40634259259</v>
+        <v>45896</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11443,14 +11443,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 45515-2024</t>
+          <t>A 49332-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45578</v>
+        <v>45938.58184027778</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11500,14 +11500,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 33870-2025</t>
+          <t>A 48304-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45842.543125</v>
+        <v>45205.57822916667</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11519,8 +11519,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11557,14 +11562,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 34425-2023</t>
+          <t>A 45515-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45133</v>
+        <v>45578</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11577,7 +11582,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11614,14 +11619,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 48304-2023</t>
+          <t>A 33870-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45205.57822916667</v>
+        <v>45842.543125</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11633,13 +11638,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11676,14 +11676,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 40505-2025</t>
+          <t>A 34425-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45896</v>
+        <v>45133</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11733,14 +11733,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 25635-2023</t>
+          <t>A 37197-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45089.71910879629</v>
+        <v>45875</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>6.1</v>
+        <v>3.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11790,14 +11790,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 73063-2021</t>
+          <t>A 57341-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44546</v>
+        <v>45979</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.8</v>
+        <v>17.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11847,14 +11847,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 6160-2022</t>
+          <t>A 25635-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44599</v>
+        <v>45089.71910879629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.4</v>
+        <v>6.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11904,14 +11904,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 49332-2025</t>
+          <t>A 73063-2021</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45938.58184027778</v>
+        <v>44546</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11961,14 +11961,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 34091-2024</t>
+          <t>A 6160-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45523</v>
+        <v>44599</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11980,13 +11980,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12023,14 +12018,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 3620-2025</t>
+          <t>A 34091-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45681</v>
+        <v>45523</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12042,8 +12037,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12080,14 +12080,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 61134-2024</t>
+          <t>A 52333-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45645.58368055556</v>
+        <v>45953.68208333333</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12099,8 +12099,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12137,14 +12142,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 37197-2025</t>
+          <t>A 52069-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45875</v>
+        <v>45952.64488425926</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12157,7 +12162,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12194,14 +12199,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 36843-2025</t>
+          <t>A 3620-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45874</v>
+        <v>45681</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12214,7 +12219,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12251,14 +12256,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 21854-2023</t>
+          <t>A 61134-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45068</v>
+        <v>45645.58368055556</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12271,7 +12276,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12308,14 +12313,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 30627-2024</t>
+          <t>A 21854-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45495.4729050926</v>
+        <v>45068</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12328,7 +12333,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12365,14 +12370,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 37502-2025</t>
+          <t>A 30627-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45877</v>
+        <v>45495.4729050926</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12422,14 +12427,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 8358-2024</t>
+          <t>A 52849-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45352</v>
+        <v>45957.49063657408</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12442,7 +12447,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12479,14 +12484,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 52333-2025</t>
+          <t>A 8358-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45953.68208333333</v>
+        <v>45352</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12498,13 +12503,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12541,14 +12541,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 52069-2025</t>
+          <t>A 6394-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45952.64488425926</v>
+        <v>44965.65447916667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>5.1</v>
+        <v>0.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12598,14 +12598,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 38161-2025</t>
+          <t>A 3002-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45882.62423611111</v>
+        <v>44945</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12617,8 +12617,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12655,14 +12660,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 6394-2023</t>
+          <t>A 36843-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44965.65447916667</v>
+        <v>45874</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12675,7 +12680,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12712,14 +12717,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 20168-2025</t>
+          <t>A 37502-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45772</v>
+        <v>45877</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12732,7 +12737,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12769,14 +12774,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 38159-2025</t>
+          <t>A 38894-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45882.62059027778</v>
+        <v>45163.56357638889</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12789,7 +12794,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12826,14 +12831,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 38172-2025</t>
+          <t>A 54140-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45882.6340162037</v>
+        <v>45964.47696759259</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12846,7 +12851,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12883,14 +12888,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 3002-2023</t>
+          <t>A 38161-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44945</v>
+        <v>45882.62423611111</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12902,13 +12907,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12945,14 +12945,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 38178-2025</t>
+          <t>A 20168-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45882.64111111111</v>
+        <v>45772</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13002,14 +13002,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 38155-2025</t>
+          <t>A 36162-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45882.61208333333</v>
+        <v>44803</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13059,14 +13059,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 67-2024</t>
+          <t>A 38159-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45293</v>
+        <v>45882.62059027778</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13116,14 +13116,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 52849-2025</t>
+          <t>A 38172-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45957.49063657408</v>
+        <v>45882.6340162037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13173,14 +13173,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 38894-2023</t>
+          <t>A 38178-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45163.56357638889</v>
+        <v>45882.64111111111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13230,14 +13230,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 41728-2021</t>
+          <t>A 7735-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44425</v>
+        <v>44973</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>8.1</v>
+        <v>1.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13287,14 +13287,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 23962-2023</t>
+          <t>A 38155-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45078</v>
+        <v>45882.61208333333</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13344,14 +13344,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 36162-2022</t>
+          <t>A 67-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44803</v>
+        <v>45293</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13364,7 +13364,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13401,14 +13401,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 54140-2025</t>
+          <t>A 21762-2021</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45964.47696759259</v>
+        <v>44322</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13458,14 +13458,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 7835-2026</t>
+          <t>A 2291-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46062.64881944445</v>
+        <v>45673</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13515,14 +13515,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 7735-2023</t>
+          <t>A 41728-2021</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44973</v>
+        <v>44425</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13535,7 +13535,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.9</v>
+        <v>8.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13572,14 +13572,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 7745-2026</t>
+          <t>A 60157-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46062.54239583333</v>
+        <v>45994.4268287037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13591,13 +13591,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>8.300000000000001</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13634,14 +13629,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 42973-2025</t>
+          <t>A 22166-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45909.42108796296</v>
+        <v>45446.24053240741</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13654,7 +13649,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13691,14 +13686,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 21762-2021</t>
+          <t>A 60193-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44322</v>
+        <v>45994.48403935185</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13711,7 +13706,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13748,14 +13743,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 7736-2026</t>
+          <t>A 23962-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46062</v>
+        <v>45078</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13767,13 +13762,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>8.9</v>
+        <v>2.2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13810,14 +13800,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 2291-2025</t>
+          <t>A 29987-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45673</v>
+        <v>45488.51107638889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13830,7 +13820,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.6</v>
+        <v>7.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13867,14 +13857,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 57183-2025</t>
+          <t>A 16927-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45979.57028935185</v>
+        <v>45411.67149305555</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13887,7 +13877,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13924,14 +13914,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 22166-2024</t>
+          <t>A 21172-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45446.24053240741</v>
+        <v>45062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13943,8 +13933,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13981,14 +13976,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 29987-2024</t>
+          <t>A 4391-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45488.51107638889</v>
+        <v>44589</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14001,7 +13996,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>7.2</v>
+        <v>2.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14038,14 +14033,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 16927-2024</t>
+          <t>A 65082-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45411.67149305555</v>
+        <v>45288</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14058,7 +14053,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14095,14 +14090,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 21172-2023</t>
+          <t>A 45766-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45062</v>
+        <v>45195</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14114,13 +14109,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>0.8</v>
+        <v>6.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14157,14 +14147,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 4391-2022</t>
+          <t>A 28458-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44589</v>
+        <v>45103</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14177,7 +14167,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.7</v>
+        <v>6.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14214,14 +14204,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 65082-2023</t>
+          <t>A 44788-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45288</v>
+        <v>44839</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14234,7 +14224,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.9</v>
+        <v>7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14271,14 +14261,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 57341-2025</t>
+          <t>A 36333-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45979</v>
+        <v>45152</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14291,7 +14281,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>17.5</v>
+        <v>4.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14328,14 +14318,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 45766-2023</t>
+          <t>A 42516-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45195</v>
+        <v>44831</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14348,7 +14338,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>6.7</v>
+        <v>2.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14385,14 +14375,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 28458-2023</t>
+          <t>A 5911-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45103</v>
+        <v>44963.67546296296</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14405,7 +14395,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>6.4</v>
+        <v>2.8</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14442,14 +14432,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 44788-2022</t>
+          <t>A 41728-2021</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44839</v>
+        <v>44425</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14462,7 +14452,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>7</v>
+        <v>8.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14499,14 +14489,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 36333-2023</t>
+          <t>A 18406-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45152</v>
+        <v>45042</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14518,8 +14508,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14556,14 +14551,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 42516-2022</t>
+          <t>A 14055-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44831</v>
+        <v>45008</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14576,7 +14571,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14613,14 +14608,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 5911-2023</t>
+          <t>A 62071-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44963.67546296296</v>
+        <v>46006.36146990741</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14633,7 +14628,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14670,14 +14665,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 41728-2021</t>
+          <t>A 62503-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44425</v>
+        <v>46007.59125</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14690,7 +14685,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>8.1</v>
+        <v>3.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14727,14 +14722,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 18406-2023</t>
+          <t>A 62740-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45042</v>
+        <v>46008.57366898148</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14746,13 +14741,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14789,14 +14779,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 14055-2023</t>
+          <t>A 43246-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45008</v>
+        <v>45568</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14808,8 +14798,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14846,14 +14841,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 60157-2025</t>
+          <t>A 5509-2026</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45994.4268287037</v>
+        <v>46050.6296412037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14866,7 +14861,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14903,14 +14898,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 60193-2025</t>
+          <t>A 38379-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45994.48403935185</v>
+        <v>45546.25673611111</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14923,7 +14918,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14960,14 +14955,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 43246-2024</t>
+          <t>A 7794-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45568</v>
+        <v>44973</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14979,13 +14974,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>2</v>
+        <v>10.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15022,14 +15012,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 38379-2024</t>
+          <t>A 20033-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45546.25673611111</v>
+        <v>44697.68427083334</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15042,7 +15032,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>11.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15079,14 +15069,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 7794-2023</t>
+          <t>A 40075-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44973</v>
+        <v>44819</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15099,7 +15089,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>10.2</v>
+        <v>1.9</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15136,14 +15126,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 20033-2022</t>
+          <t>A 7873-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44697.68427083334</v>
+        <v>45706</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15156,7 +15146,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>11.9</v>
+        <v>0.8</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15193,14 +15183,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 40075-2022</t>
+          <t>A 15603-2021</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44819</v>
+        <v>44285</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15213,7 +15203,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.9</v>
+        <v>8.6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15250,14 +15240,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 7873-2025</t>
+          <t>A 16645-2022</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45706</v>
+        <v>44672</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15270,7 +15260,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15307,14 +15297,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 15603-2021</t>
+          <t>A 62883-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44285</v>
+        <v>45272.39652777778</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15327,7 +15317,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>8.6</v>
+        <v>4.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15364,14 +15354,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 16645-2022</t>
+          <t>A 62889-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44672</v>
+        <v>45272.41775462963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15384,7 +15374,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15421,14 +15411,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 62883-2023</t>
+          <t>A 41600-2021</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45272.39652777778</v>
+        <v>44425.43130787037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15441,7 +15431,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15478,14 +15468,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 62889-2023</t>
+          <t>A 7835-2026</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45272.41775462963</v>
+        <v>46062.64881944445</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15498,7 +15488,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15535,14 +15525,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 41600-2021</t>
+          <t>A 21174-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44425.43130787037</v>
+        <v>45062</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15555,7 +15545,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15592,14 +15582,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 21174-2023</t>
+          <t>A 7745-2026</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45062</v>
+        <v>46062.54239583333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15611,8 +15601,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>1.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15656,7 +15651,7 @@
         <v>45061.45511574074</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15718,7 +15713,7 @@
         <v>44973</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15768,14 +15763,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 9884-2025</t>
+          <t>A 7736-2026</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45716.6593287037</v>
+        <v>46062</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15787,8 +15782,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G244" t="n">
-        <v>1.8</v>
+        <v>8.9</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15825,14 +15825,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 57601-2021</t>
+          <t>A 9884-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44484</v>
+        <v>45716.6593287037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15844,13 +15844,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G245" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15887,14 +15882,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 33833-2024</t>
+          <t>A 57601-2021</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45520.6219212963</v>
+        <v>44484</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15949,14 +15944,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 62247-2022</t>
+          <t>A 33833-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44922.8935300926</v>
+        <v>45520.6219212963</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15968,8 +15963,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G247" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -16006,14 +16006,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 5233-2025</t>
+          <t>A 62247-2022</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45691</v>
+        <v>44922.8935300926</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -16063,14 +16063,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 7292-2023</t>
+          <t>A 5233-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44970</v>
+        <v>45691</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -16120,14 +16120,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 9047-2021</t>
+          <t>A 7292-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44246</v>
+        <v>44970</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -16177,14 +16177,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 19364-2024</t>
+          <t>A 9047-2021</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45429.33055555556</v>
+        <v>44246</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -16234,14 +16234,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 10662-2024</t>
+          <t>A 19364-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45369</v>
+        <v>45429.33055555556</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16291,14 +16291,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 62912-2023</t>
+          <t>A 10662-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45272.45587962963</v>
+        <v>45369</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16348,14 +16348,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 5-2023</t>
+          <t>A 62912-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44927</v>
+        <v>45272.45587962963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16405,14 +16405,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 22667-2023</t>
+          <t>A 5-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45071.63167824074</v>
+        <v>44927</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16462,14 +16462,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 57014-2024</t>
+          <t>A 22667-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45628</v>
+        <v>45071.63167824074</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16481,13 +16481,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G256" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16524,14 +16519,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 65000-2023</t>
+          <t>A 57014-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45286</v>
+        <v>45628</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16541,6 +16536,11 @@
       <c r="E257" t="inlineStr">
         <is>
           <t>GNESTA</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G257" t="n">
@@ -16581,14 +16581,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 48738-2021</t>
+          <t>A 65000-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44452</v>
+        <v>45286</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16600,13 +16600,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G258" t="n">
-        <v>11.3</v>
+        <v>1.4</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16643,14 +16638,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 61032-2024</t>
+          <t>A 48738-2021</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45644</v>
+        <v>44452</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16662,8 +16657,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G259" t="n">
-        <v>22</v>
+        <v>11.3</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16700,14 +16700,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 51375-2022</t>
+          <t>A 61032-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44869.40445601852</v>
+        <v>45644</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.7</v>
+        <v>22</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16757,14 +16757,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 62967-2023</t>
+          <t>A 51375-2022</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45272</v>
+        <v>44869.40445601852</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>7.4</v>
+        <v>1.7</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16814,14 +16814,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 63-2024</t>
+          <t>A 62967-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45293</v>
+        <v>45272</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.1</v>
+        <v>7.4</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16871,14 +16871,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 2225-2025</t>
+          <t>A 63-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45673</v>
+        <v>45293</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16928,14 +16928,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 47314-2021</t>
+          <t>A 2225-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44447</v>
+        <v>45673</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16985,14 +16985,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 25525-2024</t>
+          <t>A 47314-2021</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45463</v>
+        <v>44447</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -17042,14 +17042,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 34615-2023</t>
+          <t>A 25525-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45140</v>
+        <v>45463</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -17099,14 +17099,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 33758-2022</t>
+          <t>A 34615-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44790.34024305556</v>
+        <v>45140</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -17156,14 +17156,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 19613-2021</t>
+          <t>A 33758-2022</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44312</v>
+        <v>44790.34024305556</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -17213,14 +17213,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 49909-2023</t>
+          <t>A 19613-2021</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45214</v>
+        <v>44312</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -17270,14 +17270,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 8995-2024</t>
+          <t>A 49909-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45357.55609953704</v>
+        <v>45214</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>18</v>
+        <v>1.6</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17327,14 +17327,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 13346-2023</t>
+          <t>A 8995-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45005</v>
+        <v>45357.55609953704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>2.8</v>
+        <v>18</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17384,14 +17384,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 3227-2023</t>
+          <t>A 13346-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>44946</v>
+        <v>45005</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17403,13 +17403,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G272" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17446,14 +17441,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 7653-2023</t>
+          <t>A 3227-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44972</v>
+        <v>44946</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17465,8 +17460,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G273" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17503,14 +17503,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 44627-2023</t>
+          <t>A 7653-2023</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45189</v>
+        <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17560,14 +17560,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 7214-2023</t>
+          <t>A 44627-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44970.57342592593</v>
+        <v>45189</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17617,14 +17617,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 41955-2021</t>
+          <t>A 7214-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44426</v>
+        <v>44970.57342592593</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17674,14 +17674,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 62022-2022</t>
+          <t>A 41955-2021</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44918</v>
+        <v>44426</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17693,13 +17693,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G277" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17736,14 +17731,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 56732-2023</t>
+          <t>A 62022-2022</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45238</v>
+        <v>44918</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17755,8 +17750,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G278" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17793,14 +17793,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 39433-2024</t>
+          <t>A 56732-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45551</v>
+        <v>45238</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17850,14 +17850,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 42520-2022</t>
+          <t>A 39433-2024</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44831</v>
+        <v>45551</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17907,14 +17907,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 44331-2024</t>
+          <t>A 42520-2022</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45573</v>
+        <v>44831</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17964,14 +17964,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 11929-2022</t>
+          <t>A 44331-2024</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>44635</v>
+        <v>45573</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17984,7 +17984,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>6.8</v>
+        <v>1.3</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -18021,14 +18021,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 58205-2022</t>
+          <t>A 11929-2022</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>44901</v>
+        <v>44635</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18041,7 +18041,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.8</v>
+        <v>6.8</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -18078,14 +18078,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 73493-2021</t>
+          <t>A 58205-2022</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44551</v>
+        <v>44901</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18098,7 +18098,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -18135,14 +18135,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 62018-2022</t>
+          <t>A 73493-2021</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>44918</v>
+        <v>44551</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18154,13 +18154,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G285" t="n">
-        <v>8.1</v>
+        <v>2.6</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -18197,14 +18192,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 53063-2023</t>
+          <t>A 62018-2022</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45227</v>
+        <v>44918</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18218,11 +18213,11 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G286" t="n">
-        <v>2.9</v>
+        <v>8.1</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -18259,14 +18254,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 29986-2024</t>
+          <t>A 53063-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45488</v>
+        <v>45227</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18278,8 +18273,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G287" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -18316,14 +18316,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 44208-2023</t>
+          <t>A 29986-2024</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45188</v>
+        <v>45488</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18335,13 +18335,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G288" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -18378,14 +18373,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 54702-2021</t>
+          <t>A 44208-2023</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>44473</v>
+        <v>45188</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18397,8 +18392,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G289" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -18435,14 +18435,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 57930-2023</t>
+          <t>A 54702-2021</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45247</v>
+        <v>44473</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -18492,14 +18492,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 60295-2023</t>
+          <t>A 57930-2023</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45257</v>
+        <v>45247</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -18549,14 +18549,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 36205-2022</t>
+          <t>A 60295-2023</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>44803</v>
+        <v>45257</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>5.8</v>
+        <v>1.3</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -18606,14 +18606,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 34437-2023</t>
+          <t>A 36205-2022</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45133</v>
+        <v>44803</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>9.699999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -18663,14 +18663,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 42428-2021</t>
+          <t>A 34437-2023</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>44427</v>
+        <v>45133</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>9.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -18720,14 +18720,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 6228-2024</t>
+          <t>A 42428-2021</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45337</v>
+        <v>44427</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>10.4</v>
+        <v>9.1</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -18777,14 +18777,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 62653-2023</t>
+          <t>A 6228-2024</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45271.43541666667</v>
+        <v>45337</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>1.4</v>
+        <v>10.4</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18834,14 +18834,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 6979-2024</t>
+          <t>A 62653-2023</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45343</v>
+        <v>45271.43541666667</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18891,14 +18891,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 72341-2021</t>
+          <t>A 6979-2024</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>44545.48190972222</v>
+        <v>45343</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18948,14 +18948,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 22228-2024</t>
+          <t>A 72341-2021</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45446.42319444445</v>
+        <v>44545.48190972222</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18968,7 +18968,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -19005,14 +19005,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 56799-2021</t>
+          <t>A 22228-2024</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>44481</v>
+        <v>45446.42319444445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19025,7 +19025,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -19062,14 +19062,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 34596-2023</t>
+          <t>A 56799-2021</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45140</v>
+        <v>44481</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19082,7 +19082,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -19119,14 +19119,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 41260-2023</t>
+          <t>A 34596-2023</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45174</v>
+        <v>45140</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19139,7 +19139,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>5.9</v>
+        <v>0.9</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -19176,14 +19176,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 44381-2024</t>
+          <t>A 41260-2023</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45573</v>
+        <v>45174</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -19233,14 +19233,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 1549-2022</t>
+          <t>A 44381-2024</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>44573</v>
+        <v>45573</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19253,7 +19253,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>32.6</v>
+        <v>6.3</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -19290,14 +19290,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 44050-2023</t>
+          <t>A 1549-2022</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45188.38467592592</v>
+        <v>44573</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19309,13 +19309,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G305" t="n">
-        <v>1.3</v>
+        <v>32.6</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -19352,14 +19347,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 26138-2024</t>
+          <t>A 44050-2023</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45468.48804398148</v>
+        <v>45188.38467592592</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19371,8 +19366,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G306" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -19409,14 +19409,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 26141-2024</t>
+          <t>A 26138-2024</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45468.49388888889</v>
+        <v>45468.48804398148</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -19466,14 +19466,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 59471-2022</t>
+          <t>A 26141-2024</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>44907.44111111111</v>
+        <v>45468.49388888889</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -19523,14 +19523,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 60948-2024</t>
+          <t>A 59471-2022</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45645.38166666667</v>
+        <v>44907.44111111111</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19542,13 +19542,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G309" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -19585,14 +19580,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 59380-2023</t>
+          <t>A 60948-2024</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45253</v>
+        <v>45645.38166666667</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19604,8 +19599,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G310" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -19642,14 +19642,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 34696-2022</t>
+          <t>A 59380-2023</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>44795.54640046296</v>
+        <v>45253</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -19699,14 +19699,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 2218-2025</t>
+          <t>A 34696-2022</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45673.44721064815</v>
+        <v>44795.54640046296</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -19756,14 +19756,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 36308-2023</t>
+          <t>A 2218-2025</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45152</v>
+        <v>45673.44721064815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -19813,14 +19813,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 55619-2024</t>
+          <t>A 36308-2023</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45622</v>
+        <v>45152</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19833,7 +19833,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -19870,14 +19870,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 47013-2022</t>
+          <t>A 55619-2024</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>44852</v>
+        <v>45622</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -19927,14 +19927,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 56720-2023</t>
+          <t>A 47013-2022</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45238</v>
+        <v>44852</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19947,7 +19947,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>4.3</v>
+        <v>0.5</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19984,14 +19984,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 8018-2023</t>
+          <t>A 56720-2023</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>44973</v>
+        <v>45238</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -20041,14 +20041,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 2160-2025</t>
+          <t>A 8018-2023</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45672</v>
+        <v>44973</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -20098,14 +20098,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 5928-2023</t>
+          <t>A 2160-2025</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>44963</v>
+        <v>45672</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -20155,14 +20155,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 9575-2021</t>
+          <t>A 5928-2023</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>44251</v>
+        <v>44963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -20212,14 +20212,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 43076-2023</t>
+          <t>A 9575-2021</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45182</v>
+        <v>44251</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>18.2</v>
+        <v>1</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -20269,14 +20269,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 34429-2023</t>
+          <t>A 43076-2023</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45133</v>
+        <v>45182</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>1.9</v>
+        <v>18.2</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -20326,14 +20326,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 51747-2023</t>
+          <t>A 34429-2023</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45222</v>
+        <v>45133</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20345,13 +20345,8 @@
           <t>GNESTA</t>
         </is>
       </c>
-      <c r="F323" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G323" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -20388,14 +20383,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 10441-2025</t>
+          <t>A 51747-2023</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45720.68267361111</v>
+        <v>45222</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20409,11 +20404,11 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G324" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -20450,14 +20445,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 11746-2023</t>
+          <t>A 10441-2025</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>44994</v>
+        <v>45720.68267361111</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20469,8 +20464,13 @@
           <t>GNESTA</t>
         </is>
       </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G325" t="n">
-        <v>7.9</v>
+        <v>2.7</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -20507,85 +20507,85 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
+          <t>A 11746-2023</t>
+        </is>
+      </c>
+      <c r="B326" s="1" t="n">
+        <v>44994</v>
+      </c>
+      <c r="C326" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>GNESTA</t>
+        </is>
+      </c>
+      <c r="G326" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="n">
+        <v>0</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0</v>
+      </c>
+      <c r="L326" t="n">
+        <v>0</v>
+      </c>
+      <c r="M326" t="n">
+        <v>0</v>
+      </c>
+      <c r="N326" t="n">
+        <v>0</v>
+      </c>
+      <c r="O326" t="n">
+        <v>0</v>
+      </c>
+      <c r="P326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>0</v>
+      </c>
+      <c r="R326" s="2" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
           <t>A 25915-2024</t>
         </is>
       </c>
-      <c r="B326" s="1" t="n">
+      <c r="B327" s="1" t="n">
         <v>45467.59578703704</v>
       </c>
-      <c r="C326" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>GNESTA</t>
-        </is>
-      </c>
-      <c r="G326" t="n">
+      <c r="C327" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>GNESTA</t>
+        </is>
+      </c>
+      <c r="G327" t="n">
         <v>2.1</v>
       </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
-      <c r="J326" t="n">
-        <v>0</v>
-      </c>
-      <c r="K326" t="n">
-        <v>0</v>
-      </c>
-      <c r="L326" t="n">
-        <v>0</v>
-      </c>
-      <c r="M326" t="n">
-        <v>0</v>
-      </c>
-      <c r="N326" t="n">
-        <v>0</v>
-      </c>
-      <c r="O326" t="n">
-        <v>0</v>
-      </c>
-      <c r="P326" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q326" t="n">
-        <v>0</v>
-      </c>
-      <c r="R326" s="2" t="inlineStr"/>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>A 64-2024</t>
-        </is>
-      </c>
-      <c r="B327" s="1" t="n">
-        <v>45293</v>
-      </c>
-      <c r="C327" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>GNESTA</t>
-        </is>
-      </c>
-      <c r="G327" t="n">
-        <v>1.6</v>
-      </c>
       <c r="H327" t="n">
         <v>0</v>
       </c>
@@ -20617,63 +20617,6 @@
         <v>0</v>
       </c>
       <c r="R327" s="2" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>A 55864-2023</t>
-        </is>
-      </c>
-      <c r="B328" s="1" t="n">
-        <v>45239</v>
-      </c>
-      <c r="C328" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>GNESTA</t>
-        </is>
-      </c>
-      <c r="G328" t="n">
-        <v>8</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
-      <c r="J328" t="n">
-        <v>0</v>
-      </c>
-      <c r="K328" t="n">
-        <v>0</v>
-      </c>
-      <c r="L328" t="n">
-        <v>0</v>
-      </c>
-      <c r="M328" t="n">
-        <v>0</v>
-      </c>
-      <c r="N328" t="n">
-        <v>0</v>
-      </c>
-      <c r="O328" t="n">
-        <v>0</v>
-      </c>
-      <c r="P328" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q328" t="n">
-        <v>0</v>
-      </c>
-      <c r="R328" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GNESTA.xlsx
+++ b/Översikt GNESTA.xlsx
@@ -575,7 +575,7 @@
         <v>44659</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45712</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>45341</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>45530</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44528</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45488.479375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45568</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45671</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>45938.49037037037</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45568</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>45643.59896990741</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>45893.80018518519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44698</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>45720.67878472222</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>45670.77475694445</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>45523.46893518518</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>45989.49439814815</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45992.43287037037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45779</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>44839</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44295</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44781</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44261</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>44830</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>44575</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44861</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>44894</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>45943</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>44918</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>45467.69298611111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44972</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44980</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45603.65131944444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44790</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44972</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44973</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>45603.47306712963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45181</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>45036</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>45169</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>44965.65668981482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44853</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44334</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>44606</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>44742</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>44571</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>44607.47239583333</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>44581.78724537037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         <v>44581</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         <v>44726</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         <v>44322</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>44773</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>44468.87005787037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>44594</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>44839</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>44497</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>44833</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>44412</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>44287</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>44539</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>44873</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>44584</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>44595</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>44589</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>44589</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>44280</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>44264</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44797.60569444444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>44587</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>44657</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>44529</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>44426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>44678</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44578</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44776</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44830</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>44484</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>44831</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>44701</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44431</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44853</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>44442</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>44546</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>44481</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>44438</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44846.61579861111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>44491</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>44491</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44781</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>44833</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>44312.68601851852</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44599</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44529</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44589</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44830</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44455</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44781</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44833</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44481</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44546</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>44528.92554398148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>44694</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>44755</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>44307</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>44347.58260416667</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>44589</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>44423</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>44543</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44572.55055555556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44901.94835648148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>45518</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>44994</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>45341</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>44830</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>44599.60993055555</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>44917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>44918</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44767</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44391</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>45268</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>45666</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45018.60192129629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44893</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45558</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>45539</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45539</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45353</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45211</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45569</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>44892.77658564815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>44958</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>44650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>44972</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>44397</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44265.41753472222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>45358.35663194444</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44918.48496527778</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>44579</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>45044</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44529.34519675926</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>45265.55364583333</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44551</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>45272.59262731481</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44603</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44860.40634259259</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>45892</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>45895.77706018519</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>45205.57822916667</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         <v>45835.44564814815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>45909.55231481481</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>45089.71910879629</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>45910</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>44546</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44599</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>45578</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>45842.543125</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>45523</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>45681</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>45133</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>45645.58368055556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>45068</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>45495.4729050926</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>45916.33131944444</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>45352</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>44965.65447916667</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44945</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>45163.56357638889</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>44803</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>45874</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>44973</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>45877</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>45896</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>44322</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>45882.62423611111</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>45772</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>45882.62059027778</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>45882.6340162037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>45882.64111111111</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45882.61208333333</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>45293</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>45938.58184027778</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>45673</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>45446.24053240741</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>45488.51107638889</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>45411.67149305555</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44425</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>45078</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>45062</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>45875</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44589</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>45288</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45195</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>45103</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>44839</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>45953.68208333333</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45952.64488425926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45152</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>44831</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44963.67546296296</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>45957.49063657408</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44425</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>45042</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>45008</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>45964.47696759259</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>45568</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>45909.42108796296</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>45546.25673611111</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44973</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>45979.57028935185</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44697.68427083334</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44819</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>45706</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>44285</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>44672</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>45272.39652777778</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>45272.41775462963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44425.43130787037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>45062</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>45979</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>45061.45511574074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>44973</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>45716.6593287037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>45994.4268287037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>45994.48403935185</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>44484</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45520.6219212963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44922.8935300926</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>45691</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>44970</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>45429.33055555556</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>45369</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>45272.45587962963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>44927</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>45071.63167824074</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>45628</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>46006.36146990741</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>45286</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>46007.59125</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>44452</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15728,7 +15728,7 @@
         <v>45644</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>46008.57366898148</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>46050.6296412037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>44869.40445601852</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>45272</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>45293</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>45673</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44447</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>45463</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>45140</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>46062.64881944445</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44790.34024305556</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>46062.54239583333</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16474,7 +16474,7 @@
         <v>44312</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16531,7 +16531,7 @@
         <v>45214</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16588,7 +16588,7 @@
         <v>46062</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>45357.55609953704</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>45005</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>44946</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>44972</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>45189</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>44970.57342592593</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>44426</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>46073.57130787037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>46073.57422453703</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44918</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>46071</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>46073.57586805556</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>45238</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>45551</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17458,7 +17458,7 @@
         <v>44831</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         <v>45573</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         <v>44635</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17629,7 +17629,7 @@
         <v>44901</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17686,7 +17686,7 @@
         <v>44551</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         <v>44918</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17805,7 +17805,7 @@
         <v>45227</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17867,7 +17867,7 @@
         <v>45488</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17924,7 +17924,7 @@
         <v>45188</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         <v>44473</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18043,7 +18043,7 @@
         <v>45247</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>45257</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44803</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>45133</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44427</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>45337</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>45271.43541666667</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         <v>45343</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>44545.48190972222</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18556,7 +18556,7 @@
         <v>45446.42319444445</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
         <v>44481</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>45140</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>45174</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>45573</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
         <v>44573</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>45188.38467592592</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>45468.48804398148</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>45468.49388888889</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44907.44111111111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>45645.38166666667</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>45253</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         <v>44795.54640046296</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         <v>45673.44721064815</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19364,7 +19364,7 @@
         <v>45152</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19421,7 +19421,7 @@
         <v>45622</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>44852</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19535,7 +19535,7 @@
         <v>45238</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19592,7 +19592,7 @@
         <v>44973</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19649,7 +19649,7 @@
         <v>45672</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>44963</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
         <v>44251</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19820,7 +19820,7 @@
         <v>45182</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
         <v>45133</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19934,7 +19934,7 @@
         <v>45222</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19996,7 +19996,7 @@
         <v>45720.68267361111</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>44994</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>45467.59578703704</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20172,7 +20172,7 @@
         <v>45293</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20229,7 +20229,7 @@
         <v>45239</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>45797.67483796296</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20343,7 +20343,7 @@
         <v>45796.67364583333</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45796.68408564815</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>45796.67907407408</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>45720.48327546296</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>45495.56300925926</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>45812</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>

--- a/Översikt GNESTA.xlsx
+++ b/Översikt GNESTA.xlsx
@@ -575,7 +575,7 @@
         <v>44659</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45712</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>45341</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>45530</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44528</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45488.479375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45568</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45671</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>45938.49037037037</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45568</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>45643.59896990741</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>45893.80018518519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44698</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>45720.67878472222</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>45670.77475694445</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>45523.46893518518</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>45989.49439814815</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45992.43287037037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45779</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>44839</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44295</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44781</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44261</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>44830</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>44575</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44861</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>44894</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>45943</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>44918</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>45467.69298611111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44972</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44980</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45603.65131944444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44790</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44972</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44973</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>45603.47306712963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45181</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>45036</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>45169</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>44965.65668981482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44853</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44334</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>44606</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>44742</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>44571</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>44607.47239583333</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>44581.78724537037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         <v>44581</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         <v>44726</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         <v>44322</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>44773</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>44468.87005787037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>44594</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>44839</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>44497</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>44833</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>44412</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>44287</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>44539</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>44873</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>44584</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>44595</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>44589</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>44589</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>44280</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>44264</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44797.60569444444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>44587</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>44657</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>44529</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>44426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>44678</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44578</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44776</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44830</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>44484</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>44831</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>44701</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44431</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44853</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>44442</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>44546</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>44481</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>44438</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44846.61579861111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>44491</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>44491</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44781</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>44833</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>44312.68601851852</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44599</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44529</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44589</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44830</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44455</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44781</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44833</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44481</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44546</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>44528.92554398148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>44694</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>44755</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>44307</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>44347.58260416667</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>44589</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>44423</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>44543</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44572.55055555556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44901.94835648148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>45518</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>44994</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>45341</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>44830</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>44599.60993055555</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>44917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>44918</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44767</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44391</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>45268</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>45666</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45018.60192129629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44893</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45558</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>45539</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45539</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45353</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45211</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45569</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>44892.77658564815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>44958</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>44650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>44972</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>44397</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44265.41753472222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>45358.35663194444</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44918.48496527778</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>44579</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>45044</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44529.34519675926</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>45265.55364583333</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44551</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>45272.59262731481</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44603</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44860.40634259259</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>45892</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>45895.77706018519</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>45205.57822916667</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         <v>45835.44564814815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>45909.55231481481</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>45089.71910879629</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>45910</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>44546</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44599</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>45578</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>45842.543125</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>45523</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>45681</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>45133</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>45645.58368055556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>45068</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>45495.4729050926</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>45916.33131944444</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>45352</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>44965.65447916667</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44945</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>45163.56357638889</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>44803</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>45874</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>44973</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>45877</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>45896</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>44322</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>45882.62423611111</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>45772</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>45882.62059027778</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>45882.6340162037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>45882.64111111111</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45882.61208333333</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>45293</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>45938.58184027778</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>45673</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>45446.24053240741</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>45488.51107638889</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>45411.67149305555</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44425</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>45078</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>45062</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>45875</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44589</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>45288</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45195</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>45103</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>44839</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>45953.68208333333</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45952.64488425926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45152</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>44831</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44963.67546296296</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>45957.49063657408</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44425</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>45042</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>45008</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>45964.47696759259</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>45568</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>45909.42108796296</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>45546.25673611111</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44973</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>45979.57028935185</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44697.68427083334</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44819</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>45706</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>44285</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>44672</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>45272.39652777778</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>45272.41775462963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44425.43130787037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>45062</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>45979</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>45061.45511574074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>44973</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>45716.6593287037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>45994.4268287037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>45994.48403935185</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>44484</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45520.6219212963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44922.8935300926</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>45691</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>44970</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>45429.33055555556</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>45369</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>45272.45587962963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>44927</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>45071.63167824074</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>45628</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>46006.36146990741</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>45286</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>46007.59125</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>44452</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15728,7 +15728,7 @@
         <v>45644</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>46008.57366898148</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>46050.6296412037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>44869.40445601852</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>45272</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>45293</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>45673</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44447</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>45463</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>45140</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>46062.64881944445</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44790.34024305556</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>46062.54239583333</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16474,7 +16474,7 @@
         <v>44312</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16531,7 +16531,7 @@
         <v>45214</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16588,7 +16588,7 @@
         <v>46062</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>45357.55609953704</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>45005</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>44946</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>44972</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>45189</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>44970.57342592593</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>44426</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>46073.57130787037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>46073.57422453703</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44918</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>46071</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>46073.57586805556</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>45238</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>45551</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17458,7 +17458,7 @@
         <v>44831</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         <v>45573</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         <v>44635</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17629,7 +17629,7 @@
         <v>44901</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17686,7 +17686,7 @@
         <v>44551</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         <v>44918</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17805,7 +17805,7 @@
         <v>45227</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17867,7 +17867,7 @@
         <v>45488</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17924,7 +17924,7 @@
         <v>45188</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         <v>44473</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18043,7 +18043,7 @@
         <v>45247</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>45257</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44803</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>45133</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44427</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>45337</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>45271.43541666667</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         <v>45343</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>44545.48190972222</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18556,7 +18556,7 @@
         <v>45446.42319444445</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
         <v>44481</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>45140</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>45174</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>45573</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
         <v>44573</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>45188.38467592592</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>45468.48804398148</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>45468.49388888889</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44907.44111111111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>45645.38166666667</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>45253</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         <v>44795.54640046296</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         <v>45673.44721064815</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19364,7 +19364,7 @@
         <v>45152</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19421,7 +19421,7 @@
         <v>45622</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>44852</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19535,7 +19535,7 @@
         <v>45238</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19592,7 +19592,7 @@
         <v>44973</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19649,7 +19649,7 @@
         <v>45672</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>44963</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
         <v>44251</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19820,7 +19820,7 @@
         <v>45182</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
         <v>45133</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19934,7 +19934,7 @@
         <v>45222</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19996,7 +19996,7 @@
         <v>45720.68267361111</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>44994</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>45467.59578703704</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20172,7 +20172,7 @@
         <v>45293</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20229,7 +20229,7 @@
         <v>45239</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>45797.67483796296</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20343,7 +20343,7 @@
         <v>45796.67364583333</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45796.68408564815</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>45796.67907407408</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>45720.48327546296</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>45495.56300925926</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>45812</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
